--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2214477.845050064</v>
+        <v>-2217167.816069473</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9429133.93036505</v>
+        <v>9429133.930365048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.309829763041574</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.26809192273229</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="H6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>15.30273751513505</v>
@@ -1096,13 +1096,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>1.529361848718425</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
-        <v>12.73205987707308</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>173.0093956324215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>411.0868189942014</v>
       </c>
       <c r="H11" t="n">
-        <v>296.2985265632553</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94169079211085</v>
+        <v>47.9416907921109</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.6406662387442</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>352.8218012878638</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>90.44998357569352</v>
       </c>
       <c r="I12" t="n">
-        <v>11.7327517490976</v>
+        <v>11.73275174909763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.54244869741595</v>
+        <v>166.0998634481465</v>
       </c>
       <c r="H13" t="n">
-        <v>145.4134328684816</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.57946191532255</v>
+        <v>98.57946191532258</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.26194326440228</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>165.7493094625684</v>
       </c>
       <c r="T13" t="n">
         <v>219.8653669024019</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>182.5515657787787</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>15.80240039463661</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.7641070302074</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.16547118534112</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.535635141017</v>
       </c>
       <c r="T14" t="n">
         <v>203.9847969351029</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>32.12755246700181</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.2400542006062</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8883636319031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5782080144148</v>
       </c>
       <c r="U16" t="n">
-        <v>240.1582062899126</v>
+        <v>286.2122117214203</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.25077358303746</v>
+        <v>62.25077358303919</v>
       </c>
       <c r="T17" t="n">
         <v>156.6999353771233</v>
@@ -1910,7 +1910,7 @@
         <v>322.4462391204895</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.9530770980732</v>
+        <v>338.953077098074</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>101.3306114602328</v>
       </c>
       <c r="E19" t="n">
-        <v>99.14910108859172</v>
+        <v>99.14910108858962</v>
       </c>
       <c r="F19" t="n">
-        <v>98.13618646495166</v>
+        <v>98.13618646495169</v>
       </c>
       <c r="G19" t="n">
         <v>118.7477944908508</v>
       </c>
       <c r="H19" t="n">
-        <v>97.53103643294585</v>
+        <v>97.53103643294588</v>
       </c>
       <c r="I19" t="n">
-        <v>49.27349056699978</v>
+        <v>49.27349056699982</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95519264262661</v>
+        <v>41.95519264262664</v>
       </c>
       <c r="S19" t="n">
         <v>142.6035020739236</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.448980105501</v>
+        <v>335.4489801055011</v>
       </c>
       <c r="C20" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D20" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E20" t="n">
-        <v>334.6455085142822</v>
+        <v>334.6455085142823</v>
       </c>
       <c r="F20" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G20" t="n">
-        <v>363.6521300681712</v>
+        <v>363.6521300681713</v>
       </c>
       <c r="H20" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.25077358303746</v>
+        <v>62.25077358303757</v>
       </c>
       <c r="T20" t="n">
-        <v>156.6999353771233</v>
+        <v>156.6999353771234</v>
       </c>
       <c r="U20" t="n">
-        <v>203.7115316787382</v>
+        <v>203.7115316787383</v>
       </c>
       <c r="V20" t="n">
-        <v>280.4673969121553</v>
+        <v>280.4673969121554</v>
       </c>
       <c r="W20" t="n">
-        <v>301.9561071594334</v>
+        <v>301.9561071594335</v>
       </c>
       <c r="X20" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.953077098074</v>
+        <v>338.9530770980741</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.5471186239577</v>
+        <v>132.5471186239578</v>
       </c>
       <c r="C22" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D22" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E22" t="n">
-        <v>99.14910108858959</v>
+        <v>99.1491010885897</v>
       </c>
       <c r="F22" t="n">
-        <v>98.13618646495166</v>
+        <v>98.13618646495178</v>
       </c>
       <c r="G22" t="n">
-        <v>118.7477944908508</v>
+        <v>118.7477944908509</v>
       </c>
       <c r="H22" t="n">
-        <v>97.53103643294585</v>
+        <v>97.53103643294597</v>
       </c>
       <c r="I22" t="n">
-        <v>49.27349056699979</v>
+        <v>49.2734905669999</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95519264262661</v>
+        <v>41.95519264262673</v>
       </c>
       <c r="S22" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T22" t="n">
-        <v>172.2933464564352</v>
+        <v>172.2933464564353</v>
       </c>
       <c r="U22" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V22" t="n">
-        <v>204.8527817658484</v>
+        <v>204.8527817658485</v>
       </c>
       <c r="W22" t="n">
-        <v>239.2381367786114</v>
+        <v>239.2381367786115</v>
       </c>
       <c r="X22" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.2997917941152</v>
+        <v>171.2997917941153</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C23" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D23" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E23" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F23" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G23" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H23" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.25077358303751</v>
+        <v>62.25077358303757</v>
       </c>
       <c r="T23" t="n">
         <v>156.6999353771234</v>
       </c>
       <c r="U23" t="n">
-        <v>203.7115316787382</v>
+        <v>203.7115316787383</v>
       </c>
       <c r="V23" t="n">
         <v>280.4673969121554</v>
@@ -2381,7 +2381,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X23" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y23" t="n">
         <v>338.9530770980741</v>
@@ -2476,25 +2476,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C25" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D25" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E25" t="n">
-        <v>99.14910108858965</v>
+        <v>99.1491010885897</v>
       </c>
       <c r="F25" t="n">
-        <v>98.13618646495172</v>
+        <v>98.13618646495178</v>
       </c>
       <c r="G25" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H25" t="n">
-        <v>97.53103643294591</v>
+        <v>97.53103643294597</v>
       </c>
       <c r="I25" t="n">
-        <v>49.27349056700044</v>
+        <v>49.2734905669999</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95519264262667</v>
+        <v>41.95519264262692</v>
       </c>
       <c r="S25" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T25" t="n">
-        <v>172.2933464564352</v>
+        <v>172.2933464564353</v>
       </c>
       <c r="U25" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V25" t="n">
         <v>204.8527817658485</v>
@@ -2539,7 +2539,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y25" t="n">
         <v>171.2997917941153</v>
@@ -2555,22 +2555,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C26" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D26" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E26" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F26" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G26" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H26" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.25077358303754</v>
+        <v>62.25077358303757</v>
       </c>
       <c r="T26" t="n">
         <v>156.6999353771234</v>
       </c>
       <c r="U26" t="n">
-        <v>203.7115316787382</v>
+        <v>203.7115316787383</v>
       </c>
       <c r="V26" t="n">
         <v>280.4673969121554</v>
@@ -2618,7 +2618,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X26" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y26" t="n">
         <v>338.9530770980741</v>
@@ -2652,7 +2652,7 @@
         <v>89.67576125228521</v>
       </c>
       <c r="I27" t="n">
-        <v>8.972694874095225</v>
+        <v>8.972694874095211</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C28" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E28" t="n">
-        <v>99.14910108858965</v>
+        <v>99.1491010885897</v>
       </c>
       <c r="F28" t="n">
-        <v>98.13618646495172</v>
+        <v>98.13618646495178</v>
       </c>
       <c r="G28" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H28" t="n">
-        <v>97.53103643294591</v>
+        <v>97.53103643294597</v>
       </c>
       <c r="I28" t="n">
-        <v>49.27349056699985</v>
+        <v>49.2734905669999</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95519264262668</v>
+        <v>41.95519264262647</v>
       </c>
       <c r="S28" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T28" t="n">
         <v>172.2933464564353</v>
       </c>
       <c r="U28" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V28" t="n">
         <v>204.8527817658485</v>
@@ -2776,7 +2776,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X28" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y28" t="n">
         <v>171.2997917941153</v>
@@ -2792,22 +2792,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C29" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D29" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E29" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F29" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G29" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H29" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.25077358303751</v>
+        <v>62.25077358303757</v>
       </c>
       <c r="T29" t="n">
         <v>156.6999353771234</v>
       </c>
       <c r="U29" t="n">
-        <v>203.7115316787382</v>
+        <v>203.7115316787383</v>
       </c>
       <c r="V29" t="n">
         <v>280.4673969121554</v>
@@ -2855,7 +2855,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X29" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y29" t="n">
         <v>338.9530770980741</v>
@@ -2950,25 +2950,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C31" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D31" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E31" t="n">
-        <v>99.14910108858965</v>
+        <v>99.1491010885897</v>
       </c>
       <c r="F31" t="n">
-        <v>98.13618646495172</v>
+        <v>98.13618646495178</v>
       </c>
       <c r="G31" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H31" t="n">
-        <v>97.53103643294591</v>
+        <v>97.53103643294597</v>
       </c>
       <c r="I31" t="n">
-        <v>49.27349056699985</v>
+        <v>49.2734905669999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95519264262782</v>
+        <v>41.95519264262647</v>
       </c>
       <c r="S31" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T31" t="n">
-        <v>172.2933464564352</v>
+        <v>172.2933464564353</v>
       </c>
       <c r="U31" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V31" t="n">
         <v>204.8527817658485</v>
@@ -3013,7 +3013,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X31" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y31" t="n">
         <v>171.2997917941153</v>
@@ -3029,22 +3029,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C32" t="n">
-        <v>317.988030213028</v>
+        <v>317.9880302130281</v>
       </c>
       <c r="D32" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E32" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F32" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G32" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H32" t="n">
-        <v>247.4792454722278</v>
+        <v>247.4792454722279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.25077358303753</v>
+        <v>62.25077358303759</v>
       </c>
       <c r="T32" t="n">
         <v>156.6999353771234</v>
@@ -3092,7 +3092,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X32" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y32" t="n">
         <v>338.9530770980741</v>
@@ -3187,25 +3187,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C34" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3306114602328</v>
+        <v>101.3306114602329</v>
       </c>
       <c r="E34" t="n">
-        <v>99.14910108858966</v>
+        <v>99.14910108858972</v>
       </c>
       <c r="F34" t="n">
-        <v>98.13618646495173</v>
+        <v>98.13618646495179</v>
       </c>
       <c r="G34" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H34" t="n">
-        <v>97.53103643294592</v>
+        <v>97.53103643294598</v>
       </c>
       <c r="I34" t="n">
-        <v>49.27349056699985</v>
+        <v>49.27349056699991</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95519264262668</v>
+        <v>41.95519264262674</v>
       </c>
       <c r="S34" t="n">
-        <v>142.6035020739236</v>
+        <v>142.6035020739237</v>
       </c>
       <c r="T34" t="n">
-        <v>172.2933464564352</v>
+        <v>172.2933464564353</v>
       </c>
       <c r="U34" t="n">
-        <v>238.9273501634407</v>
+        <v>238.9273501634408</v>
       </c>
       <c r="V34" t="n">
         <v>204.8527817658485</v>
@@ -3250,7 +3250,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X34" t="n">
-        <v>178.4247938310576</v>
+        <v>178.4247938310577</v>
       </c>
       <c r="Y34" t="n">
         <v>171.2997917941153</v>
@@ -3266,22 +3266,22 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C35" t="n">
-        <v>317.9880302130281</v>
+        <v>317.988030213028</v>
       </c>
       <c r="D35" t="n">
-        <v>307.3981800627035</v>
+        <v>307.3981800627034</v>
       </c>
       <c r="E35" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F35" t="n">
-        <v>359.591184183732</v>
+        <v>359.5911841837319</v>
       </c>
       <c r="G35" t="n">
         <v>363.6521300681713</v>
       </c>
       <c r="H35" t="n">
-        <v>247.4792454722279</v>
+        <v>247.4792454722278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.25077358303758</v>
+        <v>62.25077358303754</v>
       </c>
       <c r="T35" t="n">
         <v>156.6999353771234</v>
@@ -3329,7 +3329,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X35" t="n">
-        <v>322.4462391204896</v>
+        <v>322.4462391204895</v>
       </c>
       <c r="Y35" t="n">
         <v>338.9530770980741</v>
@@ -3424,25 +3424,25 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C37" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D37" t="n">
-        <v>101.3306114602329</v>
+        <v>101.3306114602328</v>
       </c>
       <c r="E37" t="n">
-        <v>99.1491010885897</v>
+        <v>99.14910108858966</v>
       </c>
       <c r="F37" t="n">
-        <v>98.13618646495178</v>
+        <v>98.13618646495173</v>
       </c>
       <c r="G37" t="n">
         <v>118.7477944908509</v>
       </c>
       <c r="H37" t="n">
-        <v>97.53103643294597</v>
+        <v>97.53103643294591</v>
       </c>
       <c r="I37" t="n">
-        <v>49.2734905669999</v>
+        <v>49.27349056699986</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95519264262673</v>
+        <v>41.95519264262667</v>
       </c>
       <c r="S37" t="n">
-        <v>142.6035020739237</v>
+        <v>142.6035020739236</v>
       </c>
       <c r="T37" t="n">
-        <v>172.2933464564353</v>
+        <v>172.2933464564352</v>
       </c>
       <c r="U37" t="n">
-        <v>238.9273501634408</v>
+        <v>238.9273501634407</v>
       </c>
       <c r="V37" t="n">
         <v>204.8527817658485</v>
@@ -3487,7 +3487,7 @@
         <v>239.2381367786115</v>
       </c>
       <c r="X37" t="n">
-        <v>178.4247938310577</v>
+        <v>178.4247938310576</v>
       </c>
       <c r="Y37" t="n">
         <v>171.2997917941153</v>
@@ -3506,13 +3506,13 @@
         <v>317.9880302130281</v>
       </c>
       <c r="D38" t="n">
-        <v>307.3981800627034</v>
+        <v>307.3981800627035</v>
       </c>
       <c r="E38" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5911841837319</v>
+        <v>359.591184183732</v>
       </c>
       <c r="G38" t="n">
         <v>363.6521300681713</v>
@@ -3566,7 +3566,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X38" t="n">
-        <v>322.4462391204895</v>
+        <v>322.4462391204896</v>
       </c>
       <c r="Y38" t="n">
         <v>338.9530770980741</v>
@@ -3661,16 +3661,16 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C40" t="n">
-        <v>119.9619595406483</v>
+        <v>119.9619595406484</v>
       </c>
       <c r="D40" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E40" t="n">
-        <v>99.14910108858967</v>
+        <v>99.14910108858969</v>
       </c>
       <c r="F40" t="n">
-        <v>98.13618646495175</v>
+        <v>98.13618646495176</v>
       </c>
       <c r="G40" t="n">
         <v>118.7477944908509</v>
@@ -3679,7 +3679,7 @@
         <v>97.53103643294594</v>
       </c>
       <c r="I40" t="n">
-        <v>49.27349056699988</v>
+        <v>49.27349056699989</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9551926426267</v>
+        <v>41.95519264262673</v>
       </c>
       <c r="S40" t="n">
         <v>142.6035020739237</v>
@@ -3977,16 +3977,16 @@
         <v>335.4489801055011</v>
       </c>
       <c r="C44" t="n">
-        <v>317.9880302130281</v>
+        <v>317.988030213028</v>
       </c>
       <c r="D44" t="n">
-        <v>307.3981800627035</v>
+        <v>307.3981800627034</v>
       </c>
       <c r="E44" t="n">
         <v>334.6455085142823</v>
       </c>
       <c r="F44" t="n">
-        <v>359.591184183732</v>
+        <v>359.5911841837319</v>
       </c>
       <c r="G44" t="n">
         <v>363.6521300681713</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.25077358303756</v>
+        <v>62.25077358303754</v>
       </c>
       <c r="T44" t="n">
         <v>156.6999353771234</v>
@@ -4040,7 +4040,7 @@
         <v>301.9561071594335</v>
       </c>
       <c r="X44" t="n">
-        <v>322.4462391204896</v>
+        <v>322.4462391204895</v>
       </c>
       <c r="Y44" t="n">
         <v>338.9530770980741</v>
@@ -4135,16 +4135,16 @@
         <v>132.5471186239578</v>
       </c>
       <c r="C46" t="n">
-        <v>119.9619595406484</v>
+        <v>119.9619595406483</v>
       </c>
       <c r="D46" t="n">
         <v>101.3306114602329</v>
       </c>
       <c r="E46" t="n">
-        <v>99.14910108858969</v>
+        <v>99.14910108858967</v>
       </c>
       <c r="F46" t="n">
-        <v>98.13618646495176</v>
+        <v>98.13618646495175</v>
       </c>
       <c r="G46" t="n">
         <v>118.7477944908509</v>
@@ -4153,7 +4153,7 @@
         <v>97.53103643294594</v>
       </c>
       <c r="I46" t="n">
-        <v>49.27349056699989</v>
+        <v>49.27349056699986</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95519264262673</v>
+        <v>41.95519264262669</v>
       </c>
       <c r="S46" t="n">
-        <v>142.6035020739237</v>
+        <v>142.6035020739236</v>
       </c>
       <c r="T46" t="n">
         <v>172.2933464564353</v>
@@ -4331,31 +4331,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
         <v>14.44108515774386</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="F3" t="n">
-        <v>13.6131814684388</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G3" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I3" t="n">
         <v>1.304216312122629</v>
@@ -4413,46 +4413,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M3" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4507,31 +4507,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R4" t="n">
-        <v>24.75525293138463</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="S4" t="n">
-        <v>24.75525293138463</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="T4" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U4" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>44.17383394310966</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>28.71652332176112</v>
       </c>
       <c r="I5" t="n">
         <v>13.29420824829416</v>
@@ -4571,13 +4571,13 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M5" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N5" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4607,10 +4607,10 @@
         <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C6" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D6" t="n">
-        <v>17.43566227534506</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E6" t="n">
-        <v>17.43566227534506</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
         <v>1.978351653996518</v>
@@ -4647,49 +4647,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M6" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N6" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O6" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P6" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I7" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J7" t="n">
         <v>16.68152962255934</v>
@@ -4744,31 +4744,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S7" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T7" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U7" t="n">
-        <v>47.59615086525642</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="C8" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D8" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E8" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F8" t="n">
-        <v>30.29632881784312</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>14.83901819649459</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
         <v>13.29420824829416</v>
@@ -4808,46 +4808,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.75363943919166</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="9">
@@ -4860,22 +4860,22 @@
         <v>30.29632881784312</v>
       </c>
       <c r="C9" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4887,43 +4887,43 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M9" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="O9" t="n">
         <v>46.0612399205565</v>
       </c>
-      <c r="O9" t="n">
-        <v>61.2109500605402</v>
-      </c>
       <c r="P9" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y9" t="n">
         <v>45.75363943919166</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4984,28 +4984,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
         <v>27.54739878238201</v>
       </c>
       <c r="T10" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>27.54739878238201</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
         <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1991.179360509891</v>
+        <v>1295.402848605001</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.216843569479</v>
+        <v>1295.402848605001</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.216843569479</v>
+        <v>937.1371499982502</v>
       </c>
       <c r="E11" t="n">
-        <v>1236.428590971235</v>
+        <v>937.1371499982502</v>
       </c>
       <c r="F11" t="n">
-        <v>825.4426861816276</v>
+        <v>526.1512452086425</v>
       </c>
       <c r="G11" t="n">
-        <v>410.2034750763736</v>
+        <v>110.9120341033885</v>
       </c>
       <c r="H11" t="n">
         <v>110.9120341033885</v>
       </c>
       <c r="I11" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832703</v>
       </c>
       <c r="J11" t="n">
-        <v>237.4932447473411</v>
+        <v>237.4932447473407</v>
       </c>
       <c r="K11" t="n">
-        <v>550.5221313144536</v>
+        <v>550.522131314453</v>
       </c>
       <c r="L11" t="n">
-        <v>975.763906866483</v>
+        <v>975.7639068664821</v>
       </c>
       <c r="M11" t="n">
-        <v>1480.596754930487</v>
+        <v>1480.596754930486</v>
       </c>
       <c r="N11" t="n">
-        <v>1998.212134641493</v>
+        <v>1998.212134641491</v>
       </c>
       <c r="O11" t="n">
-        <v>2473.646398611045</v>
+        <v>2473.646398611043</v>
       </c>
       <c r="P11" t="n">
-        <v>2844.917542489656</v>
+        <v>2844.917542489654</v>
       </c>
       <c r="Q11" t="n">
-        <v>3075.553962979651</v>
+        <v>3075.553962979649</v>
       </c>
       <c r="R11" t="n">
-        <v>3124.304190416353</v>
+        <v>3124.304190416352</v>
       </c>
       <c r="S11" t="n">
-        <v>3124.304190416353</v>
+        <v>3124.304190416352</v>
       </c>
       <c r="T11" t="n">
-        <v>3124.304190416353</v>
+        <v>2917.596446740853</v>
       </c>
       <c r="U11" t="n">
-        <v>3124.304190416353</v>
+        <v>2917.596446740853</v>
       </c>
       <c r="V11" t="n">
-        <v>3124.304190416354</v>
+        <v>2586.533559397282</v>
       </c>
       <c r="W11" t="n">
-        <v>3124.304190416354</v>
+        <v>2233.764904127167</v>
       </c>
       <c r="X11" t="n">
-        <v>2767.918532549825</v>
+        <v>1860.299145866088</v>
       </c>
       <c r="Y11" t="n">
-        <v>2377.779200574013</v>
+        <v>1470.159813890276</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>74.33734820135494</v>
       </c>
       <c r="I12" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832703</v>
       </c>
       <c r="J12" t="n">
-        <v>147.9013029875335</v>
+        <v>147.9013029875333</v>
       </c>
       <c r="K12" t="n">
-        <v>372.0443420256674</v>
+        <v>502.6586765439085</v>
       </c>
       <c r="L12" t="n">
-        <v>719.7548601366524</v>
+        <v>850.3691946548932</v>
       </c>
       <c r="M12" t="n">
-        <v>1144.873502498831</v>
+        <v>1275.487837017072</v>
       </c>
       <c r="N12" t="n">
-        <v>1595.652415260084</v>
+        <v>1726.266749778325</v>
       </c>
       <c r="O12" t="n">
-        <v>1985.807258428981</v>
+        <v>2116.421592947222</v>
       </c>
       <c r="P12" t="n">
         <v>2410.222185005553</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.0983335319806</v>
+        <v>627.86867070555</v>
       </c>
       <c r="C13" t="n">
-        <v>533.1621506040738</v>
+        <v>627.86867070555</v>
       </c>
       <c r="D13" t="n">
-        <v>533.1621506040738</v>
+        <v>477.7520312932143</v>
       </c>
       <c r="E13" t="n">
-        <v>385.2490570216806</v>
+        <v>329.8389377108211</v>
       </c>
       <c r="F13" t="n">
-        <v>385.2490570216806</v>
+        <v>329.8389377108211</v>
       </c>
       <c r="G13" t="n">
-        <v>308.9435532869171</v>
+        <v>162.0612978642084</v>
       </c>
       <c r="H13" t="n">
         <v>162.0612978642084</v>
       </c>
       <c r="I13" t="n">
-        <v>62.48608380832707</v>
+        <v>62.48608380832703</v>
       </c>
       <c r="J13" t="n">
-        <v>102.4253714033064</v>
+        <v>102.4253714033063</v>
       </c>
       <c r="K13" t="n">
-        <v>297.8947264997975</v>
+        <v>297.8947264997973</v>
       </c>
       <c r="L13" t="n">
-        <v>603.5546378827295</v>
+        <v>603.5546378827293</v>
       </c>
       <c r="M13" t="n">
-        <v>936.2192808485789</v>
+        <v>936.2192808485786</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.408518568591</v>
+        <v>1266.40851856859</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.375426765304</v>
+        <v>1555.375426765303</v>
       </c>
       <c r="P13" t="n">
-        <v>1779.115855074696</v>
+        <v>1779.115855074695</v>
       </c>
       <c r="Q13" t="n">
         <v>1850.587050104494</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.393168019239</v>
+        <v>1850.587050104494</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.393168019239</v>
+        <v>1683.163505192808</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.306938824894</v>
+        <v>1461.077275998463</v>
       </c>
       <c r="U13" t="n">
-        <v>1246.199991774829</v>
+        <v>1171.970328948398</v>
       </c>
       <c r="V13" t="n">
-        <v>991.5155035689415</v>
+        <v>917.2858407425107</v>
       </c>
       <c r="W13" t="n">
-        <v>702.098333531981</v>
+        <v>627.86867070555</v>
       </c>
       <c r="X13" t="n">
-        <v>702.0983335319806</v>
+        <v>627.86867070555</v>
       </c>
       <c r="Y13" t="n">
-        <v>702.0983335319806</v>
+        <v>627.86867070555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2133.3344112795</v>
+        <v>1649.226597320426</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.938890290835</v>
+        <v>1649.226597320426</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.673191684084</v>
+        <v>1633.264576719783</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.88493908584</v>
+        <v>1247.476324121538</v>
       </c>
       <c r="F14" t="n">
-        <v>793.8990342962327</v>
+        <v>836.4904193319308</v>
       </c>
       <c r="G14" t="n">
-        <v>378.8111639667874</v>
+        <v>421.4025490024854</v>
       </c>
       <c r="H14" t="n">
-        <v>81.06964171405269</v>
+        <v>123.6610267497508</v>
       </c>
       <c r="I14" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J14" t="n">
-        <v>436.0716981467104</v>
+        <v>406.3947958508138</v>
       </c>
       <c r="K14" t="n">
-        <v>767.9686017517993</v>
+        <v>738.2916994559027</v>
       </c>
       <c r="L14" t="n">
-        <v>1216.617820863633</v>
+        <v>1186.940918567736</v>
       </c>
       <c r="M14" t="n">
-        <v>1747.495960019445</v>
+        <v>1717.819057723549</v>
       </c>
       <c r="N14" t="n">
-        <v>2326.960424239993</v>
+        <v>2261.901168565742</v>
       </c>
       <c r="O14" t="n">
-        <v>2827.38647190859</v>
+        <v>2762.327216234338</v>
       </c>
       <c r="P14" t="n">
-        <v>3538.568246058752</v>
+        <v>3473.508990384501</v>
       </c>
       <c r="Q14" t="n">
-        <v>3995.414380791708</v>
+        <v>3930.355125117458</v>
       </c>
       <c r="R14" t="n">
-        <v>4053.482085702635</v>
+        <v>4053.482085702637</v>
       </c>
       <c r="S14" t="n">
-        <v>4053.482085702635</v>
+        <v>3942.84003000464</v>
       </c>
       <c r="T14" t="n">
-        <v>3847.436836273238</v>
+        <v>3736.794780575243</v>
       </c>
       <c r="U14" t="n">
-        <v>3593.905125933119</v>
+        <v>3483.263070235124</v>
       </c>
       <c r="V14" t="n">
-        <v>3262.842238589548</v>
+        <v>3152.200182891553</v>
       </c>
       <c r="W14" t="n">
-        <v>2910.073583319434</v>
+        <v>2799.431527621439</v>
       </c>
       <c r="X14" t="n">
-        <v>2910.073583319434</v>
+        <v>2425.965769360359</v>
       </c>
       <c r="Y14" t="n">
-        <v>2519.934251343622</v>
+        <v>2035.826437384547</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F15" t="n">
-        <v>317.0858975802897</v>
+        <v>317.0858975802898</v>
       </c>
       <c r="G15" t="n">
-        <v>180.7145468922147</v>
+        <v>180.7145468922148</v>
       </c>
       <c r="H15" t="n">
-        <v>90.13296986970443</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I15" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J15" t="n">
-        <v>173.9829298477791</v>
+        <v>176.6474125121028</v>
       </c>
       <c r="K15" t="n">
-        <v>410.9413630040396</v>
+        <v>413.6058456683633</v>
       </c>
       <c r="L15" t="n">
-        <v>775.8837600247091</v>
+        <v>778.5482426890328</v>
       </c>
       <c r="M15" t="n">
-        <v>1221.11119229927</v>
+        <v>1223.775674963594</v>
       </c>
       <c r="N15" t="n">
         <v>1695.195597470638</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.7155782266367</v>
+        <v>431.3481079100574</v>
       </c>
       <c r="C16" t="n">
-        <v>248.7793952987298</v>
+        <v>398.8960347110656</v>
       </c>
       <c r="D16" t="n">
-        <v>248.7793952987298</v>
+        <v>248.7793952987299</v>
       </c>
       <c r="E16" t="n">
-        <v>248.7793952987298</v>
+        <v>248.7793952987299</v>
       </c>
       <c r="F16" t="n">
-        <v>248.7793952987298</v>
+        <v>248.7793952987299</v>
       </c>
       <c r="G16" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="H16" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="I16" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J16" t="n">
         <v>125.7129768093658</v>
       </c>
       <c r="K16" t="n">
-        <v>328.9125269751978</v>
+        <v>328.9125269751979</v>
       </c>
       <c r="L16" t="n">
         <v>644.4644266338735</v>
       </c>
       <c r="M16" t="n">
-        <v>987.5587842773948</v>
+        <v>987.5587842773949</v>
       </c>
       <c r="N16" t="n">
         <v>1327.929741371602</v>
@@ -5458,28 +5458,28 @@
         <v>1935.131310069033</v>
       </c>
       <c r="R16" t="n">
-        <v>1844.989841179532</v>
+        <v>1935.131310069033</v>
       </c>
       <c r="S16" t="n">
-        <v>1653.183413268519</v>
+        <v>1935.131310069033</v>
       </c>
       <c r="T16" t="n">
-        <v>1653.183413268519</v>
+        <v>1713.335140357503</v>
       </c>
       <c r="U16" t="n">
-        <v>1410.599366511032</v>
+        <v>1424.231896194452</v>
       </c>
       <c r="V16" t="n">
-        <v>1155.914878305145</v>
+        <v>1169.547407988566</v>
       </c>
       <c r="W16" t="n">
-        <v>866.4977082681842</v>
+        <v>880.1302379516048</v>
       </c>
       <c r="X16" t="n">
-        <v>638.5081573701668</v>
+        <v>652.1406870535875</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.7155782266367</v>
+        <v>431.3481079100574</v>
       </c>
     </row>
     <row r="17">
@@ -5498,67 +5498,67 @@
         <v>1399.623245995278</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.597479819235</v>
+        <v>1061.597479819236</v>
       </c>
       <c r="F17" t="n">
-        <v>698.3740614518294</v>
+        <v>698.3740614518297</v>
       </c>
       <c r="G17" t="n">
-        <v>331.0486775445858</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H17" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="I17" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J17" t="n">
-        <v>436.0716981467104</v>
+        <v>268.6660491263574</v>
       </c>
       <c r="K17" t="n">
-        <v>834.0908061311106</v>
+        <v>636.5506164333437</v>
       </c>
       <c r="L17" t="n">
-        <v>1282.740025242944</v>
+        <v>1085.199835545177</v>
       </c>
       <c r="M17" t="n">
-        <v>1813.618164398757</v>
+        <v>1616.07797470099</v>
       </c>
       <c r="N17" t="n">
-        <v>2790.673730408814</v>
+        <v>2160.160085543183</v>
       </c>
       <c r="O17" t="n">
-        <v>3291.099778077411</v>
+        <v>3037.578312661897</v>
       </c>
       <c r="P17" t="n">
-        <v>3683.700831137805</v>
+        <v>3748.760086812059</v>
       </c>
       <c r="Q17" t="n">
-        <v>3930.355125117456</v>
+        <v>3995.41438079171</v>
       </c>
       <c r="R17" t="n">
-        <v>4053.482085702635</v>
+        <v>4053.482085702637</v>
       </c>
       <c r="S17" t="n">
         <v>3990.602516426839</v>
       </c>
       <c r="T17" t="n">
-        <v>3832.319753419644</v>
+        <v>3832.319753419645</v>
       </c>
       <c r="U17" t="n">
-        <v>3626.550529501727</v>
+        <v>3626.550529501728</v>
       </c>
       <c r="V17" t="n">
-        <v>3343.250128580358</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W17" t="n">
         <v>3038.243959732446</v>
       </c>
       <c r="X17" t="n">
-        <v>2712.540687893567</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y17" t="n">
-        <v>2370.163842339957</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F18" t="n">
-        <v>317.0858975802897</v>
+        <v>317.0858975802898</v>
       </c>
       <c r="G18" t="n">
-        <v>180.7145468922147</v>
+        <v>180.7145468922148</v>
       </c>
       <c r="H18" t="n">
-        <v>90.13296986970443</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I18" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J18" t="n">
-        <v>173.9829298477791</v>
+        <v>173.9829298477792</v>
       </c>
       <c r="K18" t="n">
-        <v>410.9413630040396</v>
+        <v>413.6058456683633</v>
       </c>
       <c r="L18" t="n">
-        <v>775.8837600247091</v>
+        <v>778.5482426890328</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.11119229927</v>
+        <v>1223.775674963594</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.531114806314</v>
+        <v>1695.195597470638</v>
       </c>
       <c r="O18" t="n">
-        <v>2101.568449344036</v>
+        <v>2104.23293200836</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.523905435694</v>
+        <v>2413.188388100018</v>
       </c>
       <c r="Q18" t="n">
         <v>2569.797732134857</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.1102276183161</v>
+        <v>772.1102276183143</v>
       </c>
       <c r="C19" t="n">
-        <v>650.9365311126109</v>
+        <v>650.9365311126089</v>
       </c>
       <c r="D19" t="n">
-        <v>548.5823781224767</v>
+        <v>548.5823781224748</v>
       </c>
       <c r="E19" t="n">
-        <v>448.4317709622831</v>
+        <v>448.4317709622833</v>
       </c>
       <c r="F19" t="n">
-        <v>349.3043098865743</v>
+        <v>349.3043098865745</v>
       </c>
       <c r="G19" t="n">
-        <v>229.3570427240987</v>
+        <v>229.3570427240989</v>
       </c>
       <c r="H19" t="n">
-        <v>130.8408443069818</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I19" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J19" t="n">
-        <v>172.5249897517655</v>
+        <v>172.5249897517656</v>
       </c>
       <c r="K19" t="n">
-        <v>422.5365528599974</v>
+        <v>422.536552859996</v>
       </c>
       <c r="L19" t="n">
-        <v>784.9004654610728</v>
+        <v>784.9004654610715</v>
       </c>
       <c r="M19" t="n">
-        <v>1174.806836046994</v>
+        <v>1174.806836046993</v>
       </c>
       <c r="N19" t="n">
-        <v>1561.989806083601</v>
+        <v>1561.989806083599</v>
       </c>
       <c r="O19" t="n">
-        <v>1907.173193023818</v>
+        <v>1907.173193023817</v>
       </c>
       <c r="P19" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q19" t="n">
-        <v>2309.627413608232</v>
+        <v>2309.62741360823</v>
       </c>
       <c r="R19" t="n">
-        <v>2267.248431140932</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S19" t="n">
-        <v>2123.204489652121</v>
+        <v>2123.204489652119</v>
       </c>
       <c r="T19" t="n">
-        <v>1949.170806362792</v>
+        <v>1949.17080636279</v>
       </c>
       <c r="U19" t="n">
-        <v>1707.830048621943</v>
+        <v>1707.830048621941</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.908046838257</v>
+        <v>1500.908046838256</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.253363223498</v>
+        <v>1259.253363223497</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.026298747683</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y19" t="n">
-        <v>905.9962060263542</v>
+        <v>905.9962060263524</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2031.326488698036</v>
+        <v>2031.326488698037</v>
       </c>
       <c r="C20" t="n">
         <v>1710.126458179827</v>
@@ -5741,61 +5741,61 @@
         <v>698.3740614518292</v>
       </c>
       <c r="G20" t="n">
-        <v>331.0486775445858</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H20" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="I20" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J20" t="n">
         <v>436.0716981467104</v>
       </c>
       <c r="K20" t="n">
-        <v>767.9686017517993</v>
+        <v>1088.872560197252</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.617820863633</v>
+        <v>1537.521779309086</v>
       </c>
       <c r="M20" t="n">
-        <v>1747.495960019445</v>
+        <v>2068.399918464898</v>
       </c>
       <c r="N20" t="n">
-        <v>2724.551526029502</v>
+        <v>2612.482029307091</v>
       </c>
       <c r="O20" t="n">
-        <v>3224.977573698099</v>
+        <v>3112.908076975688</v>
       </c>
       <c r="P20" t="n">
-        <v>3617.578626758494</v>
+        <v>3505.509130036082</v>
       </c>
       <c r="Q20" t="n">
-        <v>3930.355125117456</v>
+        <v>3930.355125117458</v>
       </c>
       <c r="R20" t="n">
-        <v>4053.482085702635</v>
+        <v>4053.482085702637</v>
       </c>
       <c r="S20" t="n">
-        <v>3990.602516426839</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T20" t="n">
-        <v>3832.319753419644</v>
+        <v>3832.319753419646</v>
       </c>
       <c r="U20" t="n">
-        <v>3626.550529501726</v>
+        <v>3626.550529501728</v>
       </c>
       <c r="V20" t="n">
-        <v>3343.250128580357</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W20" t="n">
-        <v>3038.243959732445</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X20" t="n">
-        <v>2712.540687893566</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y20" t="n">
-        <v>2370.163842339956</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F21" t="n">
-        <v>317.0858975802897</v>
+        <v>317.0858975802898</v>
       </c>
       <c r="G21" t="n">
-        <v>180.7145468922147</v>
+        <v>180.7145468922148</v>
       </c>
       <c r="H21" t="n">
-        <v>90.13296986970443</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I21" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J21" t="n">
-        <v>173.9829298477791</v>
+        <v>176.6474125121028</v>
       </c>
       <c r="K21" t="n">
-        <v>410.9413630040396</v>
+        <v>413.6058456683633</v>
       </c>
       <c r="L21" t="n">
-        <v>775.8837600247091</v>
+        <v>778.5482426890328</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.11119229927</v>
+        <v>1223.775674963594</v>
       </c>
       <c r="N21" t="n">
-        <v>1692.531114806314</v>
+        <v>1695.195597470638</v>
       </c>
       <c r="O21" t="n">
         <v>2104.23293200836</v>
@@ -5884,64 +5884,64 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.1102276183141</v>
+        <v>772.1102276183149</v>
       </c>
       <c r="C22" t="n">
-        <v>650.9365311126088</v>
+        <v>650.9365311126095</v>
       </c>
       <c r="D22" t="n">
-        <v>548.5823781224747</v>
+        <v>548.5823781224752</v>
       </c>
       <c r="E22" t="n">
-        <v>448.4317709622831</v>
+        <v>448.4317709622836</v>
       </c>
       <c r="F22" t="n">
-        <v>349.3043098865743</v>
+        <v>349.3043098865747</v>
       </c>
       <c r="G22" t="n">
-        <v>229.3570427240988</v>
+        <v>229.3570427240991</v>
       </c>
       <c r="H22" t="n">
-        <v>130.8408443069818</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I22" t="n">
-        <v>81.06964171405269</v>
+        <v>81.06964171405274</v>
       </c>
       <c r="J22" t="n">
-        <v>172.5249897517636</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K22" t="n">
-        <v>422.5365528599955</v>
+        <v>422.5365528599973</v>
       </c>
       <c r="L22" t="n">
-        <v>784.900465461071</v>
+        <v>784.9004654610726</v>
       </c>
       <c r="M22" t="n">
-        <v>1174.806836046992</v>
+        <v>1174.806836046994</v>
       </c>
       <c r="N22" t="n">
-        <v>1561.989806083599</v>
+        <v>1561.9898060836</v>
       </c>
       <c r="O22" t="n">
         <v>1907.173193023817</v>
       </c>
       <c r="P22" t="n">
-        <v>2185.772779440124</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q22" t="n">
-        <v>2309.62741360823</v>
+        <v>2309.627413608231</v>
       </c>
       <c r="R22" t="n">
-        <v>2267.24843114093</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S22" t="n">
         <v>2123.204489652119</v>
       </c>
       <c r="T22" t="n">
-        <v>1949.17080636279</v>
+        <v>1949.170806362791</v>
       </c>
       <c r="U22" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621942</v>
       </c>
       <c r="V22" t="n">
         <v>1500.908046838256</v>
@@ -5950,10 +5950,10 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X22" t="n">
-        <v>1079.026298747681</v>
+        <v>1079.026298747682</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.9962060263522</v>
+        <v>905.9962060263531</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1061.597479819236</v>
       </c>
       <c r="F23" t="n">
-        <v>698.3740614518306</v>
+        <v>698.3740614518301</v>
       </c>
       <c r="G23" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H23" t="n">
         <v>81.06964171405274</v>
@@ -5990,22 +5990,22 @@
         <v>436.0716981467104</v>
       </c>
       <c r="K23" t="n">
-        <v>767.9686017517994</v>
+        <v>822.0458631410734</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.617820863633</v>
+        <v>1270.695082252907</v>
       </c>
       <c r="M23" t="n">
-        <v>1747.495960019445</v>
+        <v>2246.591619566623</v>
       </c>
       <c r="N23" t="n">
-        <v>2291.578070861638</v>
+        <v>2790.673730408816</v>
       </c>
       <c r="O23" t="n">
-        <v>2792.004118530235</v>
+        <v>3291.099778077413</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.508990384501</v>
+        <v>3683.700831137807</v>
       </c>
       <c r="Q23" t="n">
         <v>3930.355125117458</v>
@@ -6029,10 +6029,10 @@
         <v>3038.243959732447</v>
       </c>
       <c r="X23" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893569</v>
       </c>
       <c r="Y23" t="n">
-        <v>2370.163842339958</v>
+        <v>2370.163842339959</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J24" t="n">
-        <v>176.6474125121028</v>
+        <v>173.9829298477792</v>
       </c>
       <c r="K24" t="n">
-        <v>413.6058456683633</v>
+        <v>410.9413630040397</v>
       </c>
       <c r="L24" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N24" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O24" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.797732134857</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.1102276183146</v>
+        <v>772.1102276183149</v>
       </c>
       <c r="C25" t="n">
-        <v>650.9365311126093</v>
+        <v>650.9365311126095</v>
       </c>
       <c r="D25" t="n">
-        <v>548.5823781224751</v>
+        <v>548.5823781224752</v>
       </c>
       <c r="E25" t="n">
-        <v>448.4317709622835</v>
+        <v>448.4317709622836</v>
       </c>
       <c r="F25" t="n">
         <v>349.3043098865747</v>
       </c>
       <c r="G25" t="n">
-        <v>229.3570427240991</v>
+        <v>229.357042724099</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8408443069825</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I25" t="n">
         <v>81.06964171405274</v>
       </c>
       <c r="J25" t="n">
-        <v>172.5249897517656</v>
+        <v>172.5249897517651</v>
       </c>
       <c r="K25" t="n">
-        <v>422.5365528599971</v>
+        <v>422.5365528599968</v>
       </c>
       <c r="L25" t="n">
-        <v>784.9004654610724</v>
+        <v>784.9004654610721</v>
       </c>
       <c r="M25" t="n">
-        <v>1174.806836046994</v>
+        <v>1174.806836046993</v>
       </c>
       <c r="N25" t="n">
         <v>1561.9898060836</v>
       </c>
       <c r="O25" t="n">
-        <v>1907.173193023818</v>
+        <v>1907.173193023817</v>
       </c>
       <c r="P25" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q25" t="n">
         <v>2309.627413608231</v>
@@ -6187,10 +6187,10 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X25" t="n">
-        <v>1079.026298747681</v>
+        <v>1079.026298747682</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.9962060263529</v>
+        <v>905.9962060263531</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698039</v>
       </c>
       <c r="C26" t="n">
         <v>1710.126458179828</v>
@@ -6212,10 +6212,10 @@
         <v>1061.597479819237</v>
       </c>
       <c r="F26" t="n">
-        <v>698.3740614518307</v>
+        <v>698.3740614518306</v>
       </c>
       <c r="G26" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H26" t="n">
         <v>81.06964171405274</v>
@@ -6224,49 +6224,49 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J26" t="n">
-        <v>406.3947958508157</v>
+        <v>268.6660491263574</v>
       </c>
       <c r="K26" t="n">
-        <v>738.2916994559046</v>
+        <v>600.5629527314463</v>
       </c>
       <c r="L26" t="n">
-        <v>1186.940918567738</v>
+        <v>1462.696774248226</v>
       </c>
       <c r="M26" t="n">
-        <v>1717.81905772355</v>
+        <v>1993.574913404038</v>
       </c>
       <c r="N26" t="n">
-        <v>2261.901168565743</v>
+        <v>2537.657024246231</v>
       </c>
       <c r="O26" t="n">
-        <v>2762.32721623434</v>
+        <v>3038.083071914828</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.508990384502</v>
+        <v>3748.76008681206</v>
       </c>
       <c r="Q26" t="n">
-        <v>3930.355125117459</v>
+        <v>3995.414380791711</v>
       </c>
       <c r="R26" t="n">
         <v>4053.482085702637</v>
       </c>
       <c r="S26" t="n">
-        <v>3990.602516426841</v>
+        <v>3990.602516426842</v>
       </c>
       <c r="T26" t="n">
-        <v>3832.319753419646</v>
+        <v>3832.319753419647</v>
       </c>
       <c r="U26" t="n">
-        <v>3626.550529501729</v>
+        <v>3626.55052950173</v>
       </c>
       <c r="V26" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580361</v>
       </c>
       <c r="W26" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732448</v>
       </c>
       <c r="X26" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.54068789357</v>
       </c>
       <c r="Y26" t="n">
         <v>2370.163842339959</v>
@@ -6297,31 +6297,31 @@
         <v>180.7145468922148</v>
       </c>
       <c r="H27" t="n">
-        <v>90.13296986970448</v>
+        <v>90.13296986970447</v>
       </c>
       <c r="I27" t="n">
         <v>81.06964171405274</v>
       </c>
       <c r="J27" t="n">
-        <v>176.6474125121036</v>
+        <v>173.9829298477792</v>
       </c>
       <c r="K27" t="n">
-        <v>413.605845668364</v>
+        <v>410.9413630040397</v>
       </c>
       <c r="L27" t="n">
-        <v>778.5482426890334</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N27" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q27" t="n">
         <v>2569.797732134857</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.1102276183142</v>
+        <v>772.1102276183145</v>
       </c>
       <c r="C28" t="n">
-        <v>650.9365311126088</v>
+        <v>650.9365311126091</v>
       </c>
       <c r="D28" t="n">
-        <v>548.5823781224747</v>
+        <v>548.5823781224749</v>
       </c>
       <c r="E28" t="n">
-        <v>448.4317709622831</v>
+        <v>448.4317709622833</v>
       </c>
       <c r="F28" t="n">
-        <v>349.3043098865742</v>
+        <v>349.3043098865744</v>
       </c>
       <c r="G28" t="n">
-        <v>229.3570427240986</v>
+        <v>229.3570427240987</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8408443069818</v>
+        <v>130.8408443069816</v>
       </c>
       <c r="I28" t="n">
         <v>81.06964171405274</v>
@@ -6391,7 +6391,7 @@
         <v>784.9004654610726</v>
       </c>
       <c r="M28" t="n">
-        <v>1174.806836046993</v>
+        <v>1174.806836046994</v>
       </c>
       <c r="N28" t="n">
         <v>1561.9898060836</v>
@@ -6403,19 +6403,19 @@
         <v>2185.772779440125</v>
       </c>
       <c r="Q28" t="n">
-        <v>2309.62741360823</v>
+        <v>2309.627413608231</v>
       </c>
       <c r="R28" t="n">
         <v>2267.248431140931</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.204489652119</v>
+        <v>2123.20448965212</v>
       </c>
       <c r="T28" t="n">
         <v>1949.170806362791</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.830048621941</v>
+        <v>1707.830048621942</v>
       </c>
       <c r="V28" t="n">
         <v>1500.908046838256</v>
@@ -6427,7 +6427,7 @@
         <v>1079.026298747681</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.9962060263524</v>
+        <v>905.9962060263528</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698037</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.126458179828</v>
+        <v>1710.126458179827</v>
       </c>
       <c r="D29" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.597479819237</v>
+        <v>1061.597479819235</v>
       </c>
       <c r="F29" t="n">
-        <v>698.3740614518307</v>
+        <v>698.3740614518292</v>
       </c>
       <c r="G29" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H29" t="n">
         <v>81.06964171405274</v>
@@ -6464,22 +6464,22 @@
         <v>268.6660491263574</v>
       </c>
       <c r="K29" t="n">
-        <v>600.5629527314463</v>
+        <v>921.4669111768994</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.21217184328</v>
+        <v>1370.116130288733</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.090310999092</v>
+        <v>1900.994269444545</v>
       </c>
       <c r="N29" t="n">
-        <v>2557.145877009149</v>
+        <v>2445.076380286738</v>
       </c>
       <c r="O29" t="n">
-        <v>3356.159033751665</v>
+        <v>2945.502427955335</v>
       </c>
       <c r="P29" t="n">
-        <v>3748.76008681206</v>
+        <v>3656.684202105497</v>
       </c>
       <c r="Q29" t="n">
         <v>3995.414380791711</v>
@@ -6494,19 +6494,19 @@
         <v>3832.319753419646</v>
       </c>
       <c r="U29" t="n">
-        <v>3626.550529501729</v>
+        <v>3626.550529501728</v>
       </c>
       <c r="V29" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W29" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X29" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y29" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J30" t="n">
-        <v>173.9829298477792</v>
+        <v>176.6474125121028</v>
       </c>
       <c r="K30" t="n">
         <v>413.6058456683633</v>
@@ -6601,49 +6601,49 @@
         <v>650.9365311126091</v>
       </c>
       <c r="D31" t="n">
-        <v>548.582378122475</v>
+        <v>548.5823781224749</v>
       </c>
       <c r="E31" t="n">
-        <v>448.4317709622834</v>
+        <v>448.4317709622833</v>
       </c>
       <c r="F31" t="n">
-        <v>349.3043098865746</v>
+        <v>349.3043098865744</v>
       </c>
       <c r="G31" t="n">
-        <v>229.357042724099</v>
+        <v>229.3570427240987</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8408443069819</v>
+        <v>130.8408443069816</v>
       </c>
       <c r="I31" t="n">
         <v>81.06964171405274</v>
       </c>
       <c r="J31" t="n">
-        <v>172.5249897517656</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K31" t="n">
-        <v>422.5365528599974</v>
+        <v>422.5365528599972</v>
       </c>
       <c r="L31" t="n">
-        <v>784.9004654610726</v>
+        <v>784.9004654610725</v>
       </c>
       <c r="M31" t="n">
         <v>1174.806836046994</v>
       </c>
       <c r="N31" t="n">
-        <v>1561.989806083601</v>
+        <v>1561.9898060836</v>
       </c>
       <c r="O31" t="n">
-        <v>1907.173193023818</v>
+        <v>1907.173193023817</v>
       </c>
       <c r="P31" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q31" t="n">
-        <v>2309.627413608231</v>
+        <v>2309.62741360823</v>
       </c>
       <c r="R31" t="n">
-        <v>2267.24843114093</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S31" t="n">
         <v>2123.204489652119</v>
@@ -6664,7 +6664,7 @@
         <v>1079.026298747681</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.9962060263526</v>
+        <v>905.9962060263528</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.326488698039</v>
+        <v>2031.326488698038</v>
       </c>
       <c r="C32" t="n">
         <v>1710.126458179828</v>
@@ -6683,19 +6683,19 @@
         <v>1399.623245995279</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.597479819237</v>
+        <v>1061.597479819236</v>
       </c>
       <c r="F32" t="n">
-        <v>698.3740614518308</v>
+        <v>698.3740614518301</v>
       </c>
       <c r="G32" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H32" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405275</v>
       </c>
       <c r="I32" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405275</v>
       </c>
       <c r="J32" t="n">
         <v>436.0716981467104</v>
@@ -6725,25 +6725,25 @@
         <v>4053.482085702638</v>
       </c>
       <c r="S32" t="n">
-        <v>3990.602516426843</v>
+        <v>3990.602516426842</v>
       </c>
       <c r="T32" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419646</v>
       </c>
       <c r="U32" t="n">
         <v>3626.550529501729</v>
       </c>
       <c r="V32" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W32" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X32" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893568</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339958</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>180.7145468922148</v>
       </c>
       <c r="H33" t="n">
-        <v>90.1329698697045</v>
+        <v>90.13296986970448</v>
       </c>
       <c r="I33" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405275</v>
       </c>
       <c r="J33" t="n">
         <v>173.9829298477792</v>
       </c>
       <c r="K33" t="n">
-        <v>413.6058456683633</v>
+        <v>410.9413630040397</v>
       </c>
       <c r="L33" t="n">
-        <v>778.5482426890328</v>
+        <v>775.8837600247091</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.775674963594</v>
+        <v>1221.11119229927</v>
       </c>
       <c r="N33" t="n">
-        <v>1695.195597470638</v>
+        <v>1692.531114806314</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.23293200836</v>
+        <v>2101.568449344036</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q33" t="n">
         <v>2569.797732134857</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.1102276183148</v>
+        <v>772.1102276183151</v>
       </c>
       <c r="C34" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126097</v>
       </c>
       <c r="D34" t="n">
-        <v>548.5823781224751</v>
+        <v>548.5823781224755</v>
       </c>
       <c r="E34" t="n">
-        <v>448.4317709622835</v>
+        <v>448.4317709622838</v>
       </c>
       <c r="F34" t="n">
-        <v>349.3043098865747</v>
+        <v>349.304309886575</v>
       </c>
       <c r="G34" t="n">
-        <v>229.3570427240991</v>
+        <v>229.3570427240993</v>
       </c>
       <c r="H34" t="n">
         <v>130.8408443069819</v>
       </c>
       <c r="I34" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405275</v>
       </c>
       <c r="J34" t="n">
-        <v>172.5249897517657</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K34" t="n">
-        <v>422.5365528599975</v>
+        <v>422.5365528599973</v>
       </c>
       <c r="L34" t="n">
-        <v>784.9004654610729</v>
+        <v>784.9004654610726</v>
       </c>
       <c r="M34" t="n">
         <v>1174.806836046994</v>
@@ -6874,7 +6874,7 @@
         <v>1907.173193023818</v>
       </c>
       <c r="P34" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q34" t="n">
         <v>2309.627413608231</v>
@@ -6886,22 +6886,22 @@
         <v>2123.20448965212</v>
       </c>
       <c r="T34" t="n">
-        <v>1949.170806362791</v>
+        <v>1949.170806362792</v>
       </c>
       <c r="U34" t="n">
         <v>1707.830048621942</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.908046838256</v>
+        <v>1500.908046838257</v>
       </c>
       <c r="W34" t="n">
-        <v>1259.253363223497</v>
+        <v>1259.253363223498</v>
       </c>
       <c r="X34" t="n">
-        <v>1079.026298747681</v>
+        <v>1079.026298747682</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.9962060263529</v>
+        <v>905.9962060263533</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.326488698039</v>
+        <v>2031.326488698037</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.126458179828</v>
+        <v>1710.126458179827</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.597479819237</v>
+        <v>1061.597479819236</v>
       </c>
       <c r="F35" t="n">
-        <v>698.3740614518306</v>
+        <v>698.3740614518297</v>
       </c>
       <c r="G35" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H35" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="I35" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J35" t="n">
-        <v>436.0716981467104</v>
+        <v>406.3947958508138</v>
       </c>
       <c r="K35" t="n">
-        <v>767.9686017517994</v>
+        <v>738.2916994559027</v>
       </c>
       <c r="L35" t="n">
-        <v>1216.617820863633</v>
+        <v>1186.940918567736</v>
       </c>
       <c r="M35" t="n">
-        <v>1747.495960019445</v>
+        <v>1717.819057723549</v>
       </c>
       <c r="N35" t="n">
-        <v>2291.578070861638</v>
+        <v>2261.901168565742</v>
       </c>
       <c r="O35" t="n">
-        <v>2792.004118530235</v>
+        <v>2762.327216234338</v>
       </c>
       <c r="P35" t="n">
-        <v>3503.185892680397</v>
+        <v>3473.508990384501</v>
       </c>
       <c r="Q35" t="n">
-        <v>3960.032027413354</v>
+        <v>3930.355125117457</v>
       </c>
       <c r="R35" t="n">
-        <v>4053.482085702638</v>
+        <v>4053.482085702636</v>
       </c>
       <c r="S35" t="n">
-        <v>3990.602516426843</v>
+        <v>3990.60251642684</v>
       </c>
       <c r="T35" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419645</v>
       </c>
       <c r="U35" t="n">
-        <v>3626.55052950173</v>
+        <v>3626.550529501728</v>
       </c>
       <c r="V35" t="n">
-        <v>3343.250128580361</v>
+        <v>3343.250128580359</v>
       </c>
       <c r="W35" t="n">
-        <v>3038.243959732448</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X35" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893567</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339957</v>
       </c>
     </row>
     <row r="36">
@@ -7002,16 +7002,16 @@
         <v>463.6204555534048</v>
       </c>
       <c r="F36" t="n">
-        <v>317.0858975802898</v>
+        <v>317.0858975802897</v>
       </c>
       <c r="G36" t="n">
         <v>180.7145468922148</v>
       </c>
       <c r="H36" t="n">
-        <v>90.1329698697045</v>
+        <v>90.13296986970445</v>
       </c>
       <c r="I36" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J36" t="n">
         <v>173.9829298477792</v>
@@ -7035,7 +7035,7 @@
         <v>2410.523905435694</v>
       </c>
       <c r="Q36" t="n">
-        <v>2567.133249470533</v>
+        <v>2569.797732134857</v>
       </c>
       <c r="R36" t="n">
         <v>2569.797732134857</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.110227618315</v>
+        <v>772.1102276183148</v>
       </c>
       <c r="C37" t="n">
-        <v>650.9365311126096</v>
+        <v>650.9365311126094</v>
       </c>
       <c r="D37" t="n">
-        <v>548.5823781224753</v>
+        <v>548.5823781224751</v>
       </c>
       <c r="E37" t="n">
-        <v>448.4317709622837</v>
+        <v>448.4317709622835</v>
       </c>
       <c r="F37" t="n">
-        <v>349.3043098865749</v>
+        <v>349.3043098865747</v>
       </c>
       <c r="G37" t="n">
-        <v>229.3570427240992</v>
+        <v>229.3570427240991</v>
       </c>
       <c r="H37" t="n">
-        <v>130.840844306982</v>
+        <v>130.8408443069819</v>
       </c>
       <c r="I37" t="n">
-        <v>81.06964171405276</v>
+        <v>81.06964171405272</v>
       </c>
       <c r="J37" t="n">
-        <v>172.5249897517657</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K37" t="n">
-        <v>422.5365528599975</v>
+        <v>422.5365528599973</v>
       </c>
       <c r="L37" t="n">
-        <v>784.9004654610728</v>
+        <v>784.9004654610726</v>
       </c>
       <c r="M37" t="n">
         <v>1174.806836046994</v>
@@ -7111,7 +7111,7 @@
         <v>1907.173193023818</v>
       </c>
       <c r="P37" t="n">
-        <v>2185.772779440126</v>
+        <v>2185.772779440125</v>
       </c>
       <c r="Q37" t="n">
         <v>2309.627413608231</v>
@@ -7120,13 +7120,13 @@
         <v>2267.248431140931</v>
       </c>
       <c r="S37" t="n">
-        <v>2123.20448965212</v>
+        <v>2123.204489652119</v>
       </c>
       <c r="T37" t="n">
         <v>1949.170806362791</v>
       </c>
       <c r="U37" t="n">
-        <v>1707.830048621942</v>
+        <v>1707.830048621941</v>
       </c>
       <c r="V37" t="n">
         <v>1500.908046838256</v>
@@ -7135,10 +7135,10 @@
         <v>1259.253363223497</v>
       </c>
       <c r="X37" t="n">
-        <v>1079.026298747682</v>
+        <v>1079.026298747681</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.9962060263532</v>
+        <v>905.9962060263529</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1710.126458179828</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E38" t="n">
         <v>1061.597479819236</v>
       </c>
       <c r="F38" t="n">
-        <v>698.3740614518301</v>
+        <v>698.3740614518298</v>
       </c>
       <c r="G38" t="n">
-        <v>331.0486775445859</v>
+        <v>331.048677544586</v>
       </c>
       <c r="H38" t="n">
         <v>81.06964171405274</v>
@@ -7199,22 +7199,22 @@
         <v>4053.482085702637</v>
       </c>
       <c r="S38" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.602516426841</v>
       </c>
       <c r="T38" t="n">
-        <v>3832.319753419646</v>
+        <v>3832.319753419645</v>
       </c>
       <c r="U38" t="n">
-        <v>3626.550529501728</v>
+        <v>3626.550529501729</v>
       </c>
       <c r="V38" t="n">
-        <v>3343.250128580359</v>
+        <v>3343.25012858036</v>
       </c>
       <c r="W38" t="n">
-        <v>3038.243959732446</v>
+        <v>3038.243959732447</v>
       </c>
       <c r="X38" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893569</v>
       </c>
       <c r="Y38" t="n">
         <v>2370.163842339958</v>
@@ -7254,22 +7254,22 @@
         <v>173.9829298477792</v>
       </c>
       <c r="K39" t="n">
-        <v>410.9413630040397</v>
+        <v>413.6058456683633</v>
       </c>
       <c r="L39" t="n">
-        <v>775.8837600247091</v>
+        <v>778.5482426890328</v>
       </c>
       <c r="M39" t="n">
-        <v>1221.11119229927</v>
+        <v>1223.775674963594</v>
       </c>
       <c r="N39" t="n">
-        <v>1692.531114806314</v>
+        <v>1695.195597470638</v>
       </c>
       <c r="O39" t="n">
-        <v>2101.568449344036</v>
+        <v>2104.23293200836</v>
       </c>
       <c r="P39" t="n">
-        <v>2410.523905435694</v>
+        <v>2413.188388100018</v>
       </c>
       <c r="Q39" t="n">
         <v>2569.797732134857</v>
@@ -7315,13 +7315,13 @@
         <v>548.582378122475</v>
       </c>
       <c r="E40" t="n">
-        <v>448.4317709622835</v>
+        <v>448.4317709622834</v>
       </c>
       <c r="F40" t="n">
-        <v>349.3043098865746</v>
+        <v>349.3043098865745</v>
       </c>
       <c r="G40" t="n">
-        <v>229.357042724099</v>
+        <v>229.3570427240988</v>
       </c>
       <c r="H40" t="n">
         <v>130.8408443069819</v>
@@ -7351,13 +7351,13 @@
         <v>2185.772779440126</v>
       </c>
       <c r="Q40" t="n">
-        <v>2309.627413608232</v>
+        <v>2309.627413608231</v>
       </c>
       <c r="R40" t="n">
-        <v>2267.248431140932</v>
+        <v>2267.248431140931</v>
       </c>
       <c r="S40" t="n">
-        <v>2123.20448965212</v>
+        <v>2123.204489652119</v>
       </c>
       <c r="T40" t="n">
         <v>1949.170806362791</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698037</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.126458179828</v>
+        <v>1710.126458179827</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.623245995279</v>
+        <v>1399.623245995278</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.597479819236</v>
+        <v>1061.597479819235</v>
       </c>
       <c r="F41" t="n">
-        <v>698.3740614518301</v>
+        <v>698.3740614518288</v>
       </c>
       <c r="G41" t="n">
         <v>331.048677544586</v>
@@ -7412,19 +7412,19 @@
         <v>436.0716981467104</v>
       </c>
       <c r="K41" t="n">
-        <v>767.9686017517994</v>
+        <v>1056.872420545672</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.617820863633</v>
+        <v>1505.521639657505</v>
       </c>
       <c r="M41" t="n">
-        <v>1747.495960019445</v>
+        <v>2036.399778813317</v>
       </c>
       <c r="N41" t="n">
-        <v>2291.578070861638</v>
+        <v>2580.48188965551</v>
       </c>
       <c r="O41" t="n">
-        <v>2792.004118530235</v>
+        <v>3080.907937324107</v>
       </c>
       <c r="P41" t="n">
         <v>3473.508990384501</v>
@@ -7436,25 +7436,25 @@
         <v>4053.482085702637</v>
       </c>
       <c r="S41" t="n">
-        <v>3990.602516426842</v>
+        <v>3990.60251642684</v>
       </c>
       <c r="T41" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419644</v>
       </c>
       <c r="U41" t="n">
-        <v>3626.550529501729</v>
+        <v>3626.550529501727</v>
       </c>
       <c r="V41" t="n">
-        <v>3343.25012858036</v>
+        <v>3343.250128580358</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.243959732447</v>
+        <v>3038.243959732446</v>
       </c>
       <c r="X41" t="n">
-        <v>2712.540687893569</v>
+        <v>2712.540687893567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2370.163842339959</v>
+        <v>2370.163842339957</v>
       </c>
     </row>
     <row r="42">
@@ -7506,7 +7506,7 @@
         <v>2101.568449344036</v>
       </c>
       <c r="P42" t="n">
-        <v>2413.188388100018</v>
+        <v>2410.523905435694</v>
       </c>
       <c r="Q42" t="n">
         <v>2569.797732134857</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.110227618315</v>
+        <v>772.1102276183148</v>
       </c>
       <c r="C43" t="n">
-        <v>650.9365311126096</v>
+        <v>650.9365311126094</v>
       </c>
       <c r="D43" t="n">
-        <v>548.5823781224753</v>
+        <v>548.5823781224751</v>
       </c>
       <c r="E43" t="n">
-        <v>448.4317709622837</v>
+        <v>448.4317709622835</v>
       </c>
       <c r="F43" t="n">
-        <v>349.3043098865749</v>
+        <v>349.3043098865747</v>
       </c>
       <c r="G43" t="n">
         <v>229.357042724099</v>
@@ -7567,13 +7567,13 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J43" t="n">
-        <v>172.5249897517656</v>
+        <v>172.5249897517655</v>
       </c>
       <c r="K43" t="n">
-        <v>422.5365528599974</v>
+        <v>422.5365528599978</v>
       </c>
       <c r="L43" t="n">
-        <v>784.9004654610727</v>
+        <v>784.9004654610732</v>
       </c>
       <c r="M43" t="n">
         <v>1174.806836046994</v>
@@ -7591,7 +7591,7 @@
         <v>2309.627413608231</v>
       </c>
       <c r="R43" t="n">
-        <v>2267.248431140931</v>
+        <v>2267.248431140932</v>
       </c>
       <c r="S43" t="n">
         <v>2123.20448965212</v>
@@ -7603,16 +7603,16 @@
         <v>1707.830048621942</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.908046838257</v>
+        <v>1500.908046838256</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.253363223498</v>
+        <v>1259.253363223497</v>
       </c>
       <c r="X43" t="n">
         <v>1079.026298747682</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.9962060263532</v>
+        <v>905.996206026353</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.326488698038</v>
+        <v>2031.326488698039</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.126458179827</v>
+        <v>1710.126458179828</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.623245995278</v>
+        <v>1399.623245995279</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.597479819236</v>
+        <v>1061.597479819237</v>
       </c>
       <c r="F44" t="n">
-        <v>698.3740614518298</v>
+        <v>698.3740614518306</v>
       </c>
       <c r="G44" t="n">
-        <v>331.048677544586</v>
+        <v>331.0486775445859</v>
       </c>
       <c r="H44" t="n">
         <v>81.06964171405274</v>
@@ -7649,22 +7649,22 @@
         <v>436.0716981467104</v>
       </c>
       <c r="K44" t="n">
-        <v>1088.872560197252</v>
+        <v>767.9686017517994</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.713480410811</v>
+        <v>1216.617820863633</v>
       </c>
       <c r="M44" t="n">
-        <v>2246.591619566623</v>
+        <v>1747.495960019445</v>
       </c>
       <c r="N44" t="n">
-        <v>2790.673730408816</v>
+        <v>2291.578070861638</v>
       </c>
       <c r="O44" t="n">
-        <v>3291.099778077413</v>
+        <v>2792.004118530235</v>
       </c>
       <c r="P44" t="n">
-        <v>3683.700831137807</v>
+        <v>3503.185892680397</v>
       </c>
       <c r="Q44" t="n">
         <v>3930.355125117458</v>
@@ -7676,22 +7676,22 @@
         <v>3990.602516426842</v>
       </c>
       <c r="T44" t="n">
-        <v>3832.319753419647</v>
+        <v>3832.319753419646</v>
       </c>
       <c r="U44" t="n">
-        <v>3626.550529501728</v>
+        <v>3626.550529501729</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.250128580359</v>
+        <v>3343.25012858036</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.243959732446</v>
+        <v>3038.243959732447</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.540687893568</v>
+        <v>2712.540687893569</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.163842339958</v>
+        <v>2370.163842339959</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>81.06964171405274</v>
       </c>
       <c r="J45" t="n">
-        <v>173.9829298477792</v>
+        <v>176.6474125121028</v>
       </c>
       <c r="K45" t="n">
-        <v>410.9413630040397</v>
+        <v>413.6058456683633</v>
       </c>
       <c r="L45" t="n">
-        <v>775.8837600247091</v>
+        <v>778.5482426890328</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.11119229927</v>
+        <v>1223.775674963594</v>
       </c>
       <c r="N45" t="n">
-        <v>1692.531114806314</v>
+        <v>1695.195597470638</v>
       </c>
       <c r="O45" t="n">
-        <v>2101.568449344036</v>
+        <v>2104.23293200836</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.523905435694</v>
+        <v>2413.188388100018</v>
       </c>
       <c r="Q45" t="n">
         <v>2569.797732134857</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.1102276183148</v>
+        <v>772.1102276183146</v>
       </c>
       <c r="C46" t="n">
-        <v>650.9365311126094</v>
+        <v>650.9365311126093</v>
       </c>
       <c r="D46" t="n">
-        <v>548.5823781224751</v>
+        <v>548.582378122475</v>
       </c>
       <c r="E46" t="n">
         <v>448.4317709622835</v>
       </c>
       <c r="F46" t="n">
-        <v>349.3043098865747</v>
+        <v>349.3043098865746</v>
       </c>
       <c r="G46" t="n">
         <v>229.357042724099</v>
@@ -7810,7 +7810,7 @@
         <v>422.5365528599973</v>
       </c>
       <c r="L46" t="n">
-        <v>784.9004654610726</v>
+        <v>784.9004654610727</v>
       </c>
       <c r="M46" t="n">
         <v>1174.806836046994</v>
@@ -7819,13 +7819,13 @@
         <v>1561.989806083601</v>
       </c>
       <c r="O46" t="n">
-        <v>1907.173193023819</v>
+        <v>1907.173193023818</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.772779440127</v>
+        <v>2185.772779440126</v>
       </c>
       <c r="Q46" t="n">
-        <v>2309.627413608232</v>
+        <v>2309.627413608231</v>
       </c>
       <c r="R46" t="n">
         <v>2267.248431140932</v>
@@ -7840,16 +7840,16 @@
         <v>1707.830048621942</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.908046838257</v>
+        <v>1500.908046838256</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.253363223498</v>
+        <v>1259.253363223497</v>
       </c>
       <c r="X46" t="n">
         <v>1079.026298747682</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.996206026353</v>
+        <v>905.9962060263529</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
         <v>236.944458939016</v>
@@ -7991,10 +7991,10 @@
         <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,16 +8219,16 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O5" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6444495984684</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O6" t="n">
         <v>157.8989819595795</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7826565119678</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>157.4367714371534</v>
@@ -8544,13 +8544,13 @@
         <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.9336712305468</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>131.9336712305454</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.627287290791145</v>
+        <v>5.627287290791202</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>139.1199461863196</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>35.73975088722705</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.691396630629967</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.691396630630095</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>66.7901054336478</v>
+        <v>36.35117545646204</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.691396630629953</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0.6500433261371654</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.79010543364788</v>
+        <v>179.9916172744692</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.691396630629967</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>54.62349635280202</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>291.8220391857294</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>2.691396630629967</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R24" t="n">
         <v>0.6500433261371654</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>139.1199461863217</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.2888503402401</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>2.691396630630791</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6500433261371938</v>
+        <v>0.6500433261371654</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>301.6031404787062</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.00594414804308</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.691396630629967</v>
       </c>
       <c r="K30" t="n">
-        <v>2.691396630629953</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>182.3383216741526</v>
+        <v>182.3383216741521</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.691396630629924</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R33" t="n">
         <v>0.6500433261371654</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>139.1199461863196</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>35.73975088723085</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R36" t="n">
-        <v>3.34143995676718</v>
+        <v>0.6500433261371654</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>291.8220391857294</v>
+        <v>291.8220391857289</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.691396630629953</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0.6500433261371654</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>291.8220391857295</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>291.8220391857294</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.691396630630038</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.691396630630152</v>
       </c>
       <c r="R42" t="n">
         <v>0.6500433261371654</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>179.9916172744695</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>182.3383216741517</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.691396630629967</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.691396630630152</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0.6500433261371654</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>209.724446031059</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.2985265632553</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>112.9498262904695</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6406662387442</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0083794261618</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.90929939060527</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>90.55741475073057</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.4134328684816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.26194326440232</v>
       </c>
       <c r="S13" t="n">
-        <v>191.059605309076</v>
+        <v>25.3102958465077</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>182.7213259922289</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>338.8806412260464</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.16547118534112</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.535635141017</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>135.119268631626</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.2400542006062</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8883636319031</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5782080144148</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.05400543150768</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.131628207280301e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-5.897504706808832e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1240635.989663189</v>
+        <v>1240635.98966319</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>82037.10051991187</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
         <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>66351.91725074321</v>
+        <v>66351.91725074314</v>
       </c>
       <c r="F2" t="n">
-        <v>73793.57343793625</v>
+        <v>73793.57343793628</v>
       </c>
       <c r="G2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="H2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.1769864284</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>1071179.608263814</v>
       </c>
       <c r="F3" t="n">
-        <v>96017.94202345965</v>
+        <v>96017.94202346026</v>
       </c>
       <c r="G3" t="n">
-        <v>37827.88924638367</v>
+        <v>37827.88924638365</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.056838527802029e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1799.076112044347</v>
@@ -26393,13 +26393,13 @@
         <v>2168.760808342488</v>
       </c>
       <c r="L3" t="n">
-        <v>37827.88924638365</v>
+        <v>37827.88924638363</v>
       </c>
       <c r="M3" t="n">
-        <v>190833.7719674075</v>
+        <v>190833.7719674073</v>
       </c>
       <c r="N3" t="n">
-        <v>56895.18858969568</v>
+        <v>56895.18858969599</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>9025.94068331284</v>
+        <v>9025.940683312856</v>
       </c>
       <c r="F4" t="n">
-        <v>23748.42730332558</v>
+        <v>23748.4273033256</v>
       </c>
       <c r="G4" t="n">
         <v>71299.35238317534</v>
       </c>
       <c r="H4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.35238317527</v>
       </c>
       <c r="I4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="J4" t="n">
-        <v>71299.35238317537</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="K4" t="n">
-        <v>71299.35238317533</v>
+        <v>71299.35238317527</v>
       </c>
       <c r="L4" t="n">
-        <v>71299.35238317534</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="M4" t="n">
-        <v>71299.3523831753</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="N4" t="n">
-        <v>71299.35238317531</v>
+        <v>71299.35238317528</v>
       </c>
       <c r="O4" t="n">
         <v>71299.3523831753</v>
@@ -26476,31 +26476,31 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>70351.29585372159</v>
+        <v>70351.29585372156</v>
       </c>
       <c r="F5" t="n">
-        <v>85287.27622216931</v>
+        <v>85287.27622216934</v>
       </c>
       <c r="G5" t="n">
-        <v>89262.4672484871</v>
+        <v>89262.46724848711</v>
       </c>
       <c r="H5" t="n">
-        <v>89262.4672484871</v>
+        <v>89262.46724848711</v>
       </c>
       <c r="I5" t="n">
-        <v>89262.46724848713</v>
+        <v>89262.46724848711</v>
       </c>
       <c r="J5" t="n">
         <v>89262.46724848711</v>
       </c>
       <c r="K5" t="n">
+        <v>89262.46724848711</v>
+      </c>
+      <c r="L5" t="n">
         <v>89262.46724848713</v>
       </c>
-      <c r="L5" t="n">
-        <v>89262.46724848714</v>
-      </c>
       <c r="M5" t="n">
-        <v>89262.46724848714</v>
+        <v>89262.46724848711</v>
       </c>
       <c r="N5" t="n">
         <v>89262.46724848711</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357834.7654026505</v>
+        <v>-357836.4423143134</v>
       </c>
       <c r="C6" t="n">
         <v>-357702.7938592231</v>
@@ -26528,40 +26528,40 @@
         <v>-354980.3767672725</v>
       </c>
       <c r="E6" t="n">
-        <v>-1084204.927550106</v>
+        <v>-1084598.734043497</v>
       </c>
       <c r="F6" t="n">
-        <v>-131260.0721110183</v>
+        <v>-131467.8371997312</v>
       </c>
       <c r="G6" t="n">
-        <v>-116285.5318916178</v>
+        <v>-116285.5318916177</v>
       </c>
       <c r="H6" t="n">
-        <v>-78457.64264523405</v>
+        <v>-78457.64264523395</v>
       </c>
       <c r="I6" t="n">
-        <v>-78457.64264523418</v>
+        <v>-78457.64264523402</v>
       </c>
       <c r="J6" t="n">
-        <v>-80256.71875727848</v>
+        <v>-80256.71875727834</v>
       </c>
       <c r="K6" t="n">
-        <v>-80626.40345357655</v>
+        <v>-80626.40345357648</v>
       </c>
       <c r="L6" t="n">
-        <v>-116285.5318916177</v>
+        <v>-116285.5318916176</v>
       </c>
       <c r="M6" t="n">
-        <v>-269291.4146126416</v>
+        <v>-269291.4146126413</v>
       </c>
       <c r="N6" t="n">
-        <v>-135352.8312349297</v>
+        <v>-135352.83123493</v>
       </c>
       <c r="O6" t="n">
-        <v>-78457.64264523402</v>
+        <v>-78457.64264523407</v>
       </c>
       <c r="P6" t="n">
-        <v>-78457.64264523408</v>
+        <v>-78457.64264523407</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="H2" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I2" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J2" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K2" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L2" t="n">
+        <v>47.28486155797945</v>
+      </c>
+      <c r="M2" t="n">
         <v>47.28486155797951</v>
       </c>
-      <c r="M2" t="n">
-        <v>47.28486155797946</v>
-      </c>
       <c r="N2" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O2" t="n">
         <v>47.28486155797948</v>
       </c>
       <c r="P2" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1048.709732082249</v>
+        <v>1048.709732082248</v>
       </c>
       <c r="F3" t="n">
         <v>1085.979289884829</v>
@@ -26759,7 +26759,7 @@
         <v>1085.979289884829</v>
       </c>
       <c r="J3" t="n">
-        <v>1085.979289884828</v>
+        <v>1085.979289884829</v>
       </c>
       <c r="K3" t="n">
         <v>1085.979289884829</v>
@@ -26796,7 +26796,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>781.0760476040883</v>
+        <v>781.0760476040879</v>
       </c>
       <c r="F4" t="n">
         <v>1013.370521425659</v>
@@ -26820,7 +26820,7 @@
         <v>1013.370521425659</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.37052142566</v>
+        <v>1013.370521425659</v>
       </c>
       <c r="N4" t="n">
         <v>1013.370521425659</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.28486155797957</v>
+        <v>47.28486155797954</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1048.709732082249</v>
+        <v>1048.709732082248</v>
       </c>
       <c r="F3" t="n">
-        <v>37.26955780258004</v>
+        <v>37.26955780258049</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>765.7733100889533</v>
+        <v>765.7733100889528</v>
       </c>
       <c r="F4" t="n">
-        <v>232.2944738215704</v>
+        <v>232.2944738215713</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>6.876045741711437</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>765.7733100889534</v>
+        <v>765.7733100889525</v>
       </c>
       <c r="N4" t="n">
-        <v>232.29447382157</v>
+        <v>232.2944738215714</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>765.7733100889533</v>
+        <v>765.7733100889528</v>
       </c>
       <c r="N4" t="n">
-        <v>232.2944738215704</v>
+        <v>232.2944738215713</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>217.0394284748319</v>
+        <v>216.2198038224199</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H3" t="n">
-        <v>106.9256144734549</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>164.6559990042659</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>224.6106090740886</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>195.2077976476736</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>354.4630087557367</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>124.6114572861376</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>213.2093222039017</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27792,10 +27792,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>6.966754310747802</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.40483278346996</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>213.2593875687478</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>375.8924415141719</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.9454402670487</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27932,7 +27932,7 @@
         <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
-        <v>159.9764391112427</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,10 +27947,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>99.50338435942338</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.1883789600571</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>275.7657878683665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="C17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="D17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="E17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="F17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="G17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="H17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="I17" t="n">
         <v>42.16547118534112</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="T17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="U17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="V17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="W17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="X17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="C19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="D19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="E19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="F19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="G19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="H19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="I19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="J19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="K19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797813</v>
       </c>
       <c r="L19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="M19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="N19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="O19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="P19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="R19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="S19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="T19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="U19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="V19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="W19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="X19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797956</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I20" t="n">
         <v>42.16547118534112</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J22" t="n">
-        <v>47.28486155797762</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.28486155797958</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I23" t="n">
         <v>42.16547118534112</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I26" t="n">
-        <v>42.16547118534118</v>
+        <v>42.16547118534112</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I29" t="n">
         <v>42.16547118534112</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.28486155797953</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="C32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="D32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="E32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="F32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="G32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="H32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="I32" t="n">
         <v>42.16547118534112</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="T32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="U32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="V32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="W32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="X32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="C34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="D34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="E34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="F34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="G34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="H34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="I34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="J34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="K34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="L34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="M34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="N34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="O34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="P34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="R34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="S34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="T34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="U34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="V34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="W34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="X34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.28486155797951</v>
+        <v>47.28486155797945</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="C35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="D35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="E35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="F35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="G35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="H35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="I35" t="n">
         <v>42.16547118534112</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="T35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="U35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="V35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="W35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="X35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="C37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="D37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="E37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="F37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="G37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="H37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="I37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="J37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="K37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="L37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="M37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="N37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="O37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="P37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="R37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="S37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="T37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="U37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="V37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="W37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="X37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.28486155797946</v>
+        <v>47.28486155797951</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I38" t="n">
         <v>42.16547118534112</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="C40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="D40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="E40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="F40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="G40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="H40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="I40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="J40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="K40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="L40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="M40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="N40" t="n">
-        <v>47.2848615579797</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="O40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="P40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="R40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="S40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="T40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="U40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="V40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="W40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="X40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.2848615579795</v>
+        <v>47.28486155797948</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="C44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="D44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="E44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="F44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="G44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="H44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="I44" t="n">
         <v>42.16547118534112</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="T44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="U44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="V44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="W44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="X44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="C46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="D46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="E46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="F46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="G46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="H46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="I46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="J46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="K46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="L46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="M46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="N46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="O46" t="n">
-        <v>47.28486155798032</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="P46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="R46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="S46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="T46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="U46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="V46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="W46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="X46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.28486155797948</v>
+        <v>47.2848615579795</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.215918520933659</v>
+        <v>4.215918520933657</v>
       </c>
       <c r="H11" t="n">
-        <v>43.17627555251185</v>
+        <v>43.17627555251183</v>
       </c>
       <c r="I11" t="n">
-        <v>162.5341987782951</v>
+        <v>162.534198778295</v>
       </c>
       <c r="J11" t="n">
-        <v>357.8208145660935</v>
+        <v>357.8208145660934</v>
       </c>
       <c r="K11" t="n">
-        <v>536.2806455572154</v>
+        <v>536.2806455572152</v>
       </c>
       <c r="L11" t="n">
-        <v>665.303561992239</v>
+        <v>665.3035619922388</v>
       </c>
       <c r="M11" t="n">
-        <v>740.2784029888929</v>
+        <v>740.2784029888927</v>
       </c>
       <c r="N11" t="n">
-        <v>752.2568814864958</v>
+        <v>752.2568814864954</v>
       </c>
       <c r="O11" t="n">
-        <v>710.3348416939617</v>
+        <v>710.3348416939614</v>
       </c>
       <c r="P11" t="n">
-        <v>606.2543532084119</v>
+        <v>606.2543532084115</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.271771177475</v>
+        <v>455.2717711774748</v>
       </c>
       <c r="R11" t="n">
-        <v>264.8281917905992</v>
+        <v>264.8281917905991</v>
       </c>
       <c r="S11" t="n">
-        <v>96.07024329577587</v>
+        <v>96.07024329577582</v>
       </c>
       <c r="T11" t="n">
         <v>18.4551833253871</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3372734816746927</v>
+        <v>0.3372734816746926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.255715272780686</v>
+        <v>2.255715272780685</v>
       </c>
       <c r="H12" t="n">
-        <v>21.78546066080294</v>
+        <v>21.78546066080293</v>
       </c>
       <c r="I12" t="n">
-        <v>77.66388110231748</v>
+        <v>77.66388110231745</v>
       </c>
       <c r="J12" t="n">
-        <v>213.1156258375823</v>
+        <v>213.1156258375822</v>
       </c>
       <c r="K12" t="n">
-        <v>364.2485491138882</v>
+        <v>364.248549113888</v>
       </c>
       <c r="L12" t="n">
-        <v>489.7771253465257</v>
+        <v>489.7771253465255</v>
       </c>
       <c r="M12" t="n">
-        <v>571.5468039848254</v>
+        <v>571.5468039848251</v>
       </c>
       <c r="N12" t="n">
-        <v>586.6739471957101</v>
+        <v>586.6739471957097</v>
       </c>
       <c r="O12" t="n">
-        <v>536.6920456251485</v>
+        <v>536.6920456251482</v>
       </c>
       <c r="P12" t="n">
-        <v>430.7426822207259</v>
+        <v>430.7426822207257</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.9400758728469</v>
+        <v>287.9400758728467</v>
       </c>
       <c r="R12" t="n">
         <v>140.0522166731728</v>
       </c>
       <c r="S12" t="n">
-        <v>41.89892184309736</v>
+        <v>41.89892184309734</v>
       </c>
       <c r="T12" t="n">
-        <v>9.092115507392322</v>
+        <v>9.092115507392318</v>
       </c>
       <c r="U12" t="n">
         <v>0.1484023205776767</v>
@@ -31911,43 +31911,43 @@
         <v>1.891115910312251</v>
       </c>
       <c r="H13" t="n">
-        <v>16.81373963895803</v>
+        <v>16.81373963895802</v>
       </c>
       <c r="I13" t="n">
-        <v>56.87101301193572</v>
+        <v>56.87101301193569</v>
       </c>
       <c r="J13" t="n">
-        <v>133.7018948590762</v>
+        <v>133.7018948590761</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7132848526415</v>
+        <v>219.7132848526414</v>
       </c>
       <c r="L13" t="n">
-        <v>281.1573599749688</v>
+        <v>281.1573599749686</v>
       </c>
       <c r="M13" t="n">
-        <v>296.4410149228559</v>
+        <v>296.4410149228557</v>
       </c>
       <c r="N13" t="n">
-        <v>289.3923101662377</v>
+        <v>289.3923101662376</v>
       </c>
       <c r="O13" t="n">
-        <v>267.3006379412263</v>
+        <v>267.3006379412262</v>
       </c>
       <c r="P13" t="n">
-        <v>228.7218733708562</v>
+        <v>228.7218733708561</v>
       </c>
       <c r="Q13" t="n">
         <v>158.3551695444195</v>
       </c>
       <c r="R13" t="n">
-        <v>85.03144811276721</v>
+        <v>85.03144811276717</v>
       </c>
       <c r="S13" t="n">
-        <v>32.95699272789622</v>
+        <v>32.95699272789621</v>
       </c>
       <c r="T13" t="n">
-        <v>8.080222525879618</v>
+        <v>8.080222525879615</v>
       </c>
       <c r="U13" t="n">
         <v>0.1031517769261229</v>
@@ -32938,31 +32938,31 @@
         <v>4.365745888984232</v>
       </c>
       <c r="H26" t="n">
-        <v>44.71069508555977</v>
+        <v>44.71069508555978</v>
       </c>
       <c r="I26" t="n">
-        <v>168.3104183850647</v>
+        <v>168.3104183850648</v>
       </c>
       <c r="J26" t="n">
-        <v>370.5372251451757</v>
+        <v>370.5372251451759</v>
       </c>
       <c r="K26" t="n">
-        <v>555.3392486258783</v>
+        <v>555.3392486258784</v>
       </c>
       <c r="L26" t="n">
-        <v>688.9474443758797</v>
+        <v>688.9474443758799</v>
       </c>
       <c r="M26" t="n">
-        <v>766.586777829103</v>
+        <v>766.5867778291032</v>
       </c>
       <c r="N26" t="n">
-        <v>778.9909533361795</v>
+        <v>778.9909533361797</v>
       </c>
       <c r="O26" t="n">
-        <v>735.5790676525925</v>
+        <v>735.5790676525927</v>
       </c>
       <c r="P26" t="n">
-        <v>627.7997160182942</v>
+        <v>627.7997160182944</v>
       </c>
       <c r="Q26" t="n">
         <v>471.4514413690463</v>
@@ -32971,10 +32971,10 @@
         <v>274.239785198906</v>
       </c>
       <c r="S26" t="n">
-        <v>99.48443444522827</v>
+        <v>99.4844344452283</v>
       </c>
       <c r="T26" t="n">
-        <v>19.11105262902848</v>
+        <v>19.11105262902849</v>
       </c>
       <c r="U26" t="n">
         <v>0.3492596711187385</v>
@@ -33017,34 +33017,34 @@
         <v>2.335879982016424</v>
       </c>
       <c r="H27" t="n">
-        <v>22.55968298421125</v>
+        <v>22.55968298421126</v>
       </c>
       <c r="I27" t="n">
-        <v>80.42393797731985</v>
+        <v>80.42393797731987</v>
       </c>
       <c r="J27" t="n">
-        <v>220.6894328623499</v>
+        <v>220.68943286235</v>
       </c>
       <c r="K27" t="n">
-        <v>377.1933916574503</v>
+        <v>377.1933916574504</v>
       </c>
       <c r="L27" t="n">
-        <v>507.1830636391362</v>
+        <v>507.1830636391363</v>
       </c>
       <c r="M27" t="n">
-        <v>591.8587129872315</v>
+        <v>591.8587129872316</v>
       </c>
       <c r="N27" t="n">
-        <v>607.5234519894382</v>
+        <v>607.5234519894383</v>
       </c>
       <c r="O27" t="n">
-        <v>555.7652692300215</v>
+        <v>555.7652692300217</v>
       </c>
       <c r="P27" t="n">
-        <v>446.0506256887327</v>
+        <v>446.0506256887328</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.1730306868684</v>
+        <v>298.1730306868685</v>
       </c>
       <c r="R27" t="n">
         <v>145.0294606378268</v>
@@ -33053,7 +33053,7 @@
         <v>43.387946157191</v>
       </c>
       <c r="T27" t="n">
-        <v>9.41523554154865</v>
+        <v>9.415235541548652</v>
       </c>
       <c r="U27" t="n">
         <v>0.1536763146063437</v>
@@ -33096,7 +33096,7 @@
         <v>1.958323309628379</v>
       </c>
       <c r="H28" t="n">
-        <v>17.41127451651414</v>
+        <v>17.41127451651415</v>
       </c>
       <c r="I28" t="n">
         <v>58.89212280227891</v>
@@ -33117,22 +33117,22 @@
         <v>299.6768751906775</v>
       </c>
       <c r="O28" t="n">
-        <v>276.8000983463822</v>
+        <v>276.8000983463823</v>
       </c>
       <c r="P28" t="n">
-        <v>236.8503028299631</v>
+        <v>236.8503028299632</v>
       </c>
       <c r="Q28" t="n">
         <v>163.9828727726091</v>
       </c>
       <c r="R28" t="n">
-        <v>88.05333717656328</v>
+        <v>88.05333717656329</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1282344050691</v>
+        <v>34.12823440506911</v>
       </c>
       <c r="T28" t="n">
-        <v>8.367381413866708</v>
+        <v>8.36738141386671</v>
       </c>
       <c r="U28" t="n">
         <v>0.106817635070639</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,16 +34939,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O5" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O6" t="n">
         <v>15.30273751513505</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>15.30273751513505</v>
@@ -35264,13 +35264,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.7749100394072</v>
+        <v>176.7749100394071</v>
       </c>
       <c r="K11" t="n">
-        <v>316.1907945122348</v>
+        <v>316.1907945122346</v>
       </c>
       <c r="L11" t="n">
-        <v>429.5371470222518</v>
+        <v>429.5371470222515</v>
       </c>
       <c r="M11" t="n">
-        <v>509.9321697616202</v>
+        <v>509.93216976162</v>
       </c>
       <c r="N11" t="n">
-        <v>522.8438178899048</v>
+        <v>522.8438178899046</v>
       </c>
       <c r="O11" t="n">
-        <v>480.236630272275</v>
+        <v>480.2366302722746</v>
       </c>
       <c r="P11" t="n">
-        <v>375.0213574531423</v>
+        <v>375.021357453142</v>
       </c>
       <c r="Q11" t="n">
-        <v>232.9660813030256</v>
+        <v>232.9660813030253</v>
       </c>
       <c r="R11" t="n">
-        <v>49.24265397646712</v>
+        <v>49.24265397646701</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.27799917091559</v>
+        <v>86.27799917091548</v>
       </c>
       <c r="K12" t="n">
-        <v>226.4071101395292</v>
+        <v>358.3407813700759</v>
       </c>
       <c r="L12" t="n">
-        <v>351.2227455666515</v>
+        <v>351.2227455666513</v>
       </c>
       <c r="M12" t="n">
-        <v>429.4127700628071</v>
+        <v>429.4127700628068</v>
       </c>
       <c r="N12" t="n">
-        <v>455.3322351123768</v>
+        <v>455.3322351123765</v>
       </c>
       <c r="O12" t="n">
-        <v>394.095801180704</v>
+        <v>394.0958011807038</v>
       </c>
       <c r="P12" t="n">
-        <v>428.701946036941</v>
+        <v>296.7682748063955</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.9583017868254</v>
+        <v>147.9583017868252</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.34271474240339</v>
+        <v>40.34271474240333</v>
       </c>
       <c r="K13" t="n">
-        <v>197.4437930267587</v>
+        <v>197.4437930267586</v>
       </c>
       <c r="L13" t="n">
-        <v>308.7473852352849</v>
+        <v>308.7473852352848</v>
       </c>
       <c r="M13" t="n">
-        <v>336.0248918846964</v>
+        <v>336.0248918846963</v>
       </c>
       <c r="N13" t="n">
-        <v>333.5244825454663</v>
+        <v>333.5244825454662</v>
       </c>
       <c r="O13" t="n">
-        <v>291.885765855266</v>
+        <v>291.8857658552659</v>
       </c>
       <c r="P13" t="n">
-        <v>226.0004326357497</v>
+        <v>226.0004326357496</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.19312629272515</v>
+        <v>72.19312629272507</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.5879357905633</v>
+        <v>328.6112668048091</v>
       </c>
       <c r="K14" t="n">
         <v>335.2493975808979</v>
@@ -35656,7 +35656,7 @@
         <v>536.2405446018305</v>
       </c>
       <c r="N14" t="n">
-        <v>585.3176406268158</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O14" t="n">
         <v>505.4808562309059</v>
@@ -35668,7 +35668,7 @@
         <v>461.4607421545015</v>
       </c>
       <c r="R14" t="n">
-        <v>58.6542473847739</v>
+        <v>124.3706672577563</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85180619568328</v>
+        <v>96.54320282631325</v>
       </c>
       <c r="K15" t="n">
         <v>239.3519526830914</v>
@@ -35735,7 +35735,7 @@
         <v>449.7246790652133</v>
       </c>
       <c r="N15" t="n">
-        <v>478.8731365367351</v>
+        <v>476.181739906105</v>
       </c>
       <c r="O15" t="n">
         <v>413.1690247855772</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.5879357905633</v>
+        <v>189.4913206184896</v>
       </c>
       <c r="K17" t="n">
-        <v>402.0395030145457</v>
+        <v>371.6005730373599</v>
       </c>
       <c r="L17" t="n">
         <v>453.1810294058926</v>
@@ -35893,19 +35893,19 @@
         <v>536.2405446018305</v>
       </c>
       <c r="N17" t="n">
-        <v>986.9248141515729</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O17" t="n">
-        <v>505.4808562309059</v>
+        <v>886.2810374936513</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q17" t="n">
         <v>249.1457514945969</v>
       </c>
       <c r="R17" t="n">
-        <v>124.3706672577563</v>
+        <v>58.6542473847739</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>93.85180619568328</v>
       </c>
       <c r="K18" t="n">
-        <v>239.3519526830914</v>
+        <v>242.0433493137213</v>
       </c>
       <c r="L18" t="n">
         <v>368.6286838592621</v>
@@ -35981,7 +35981,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.8826532314771</v>
+        <v>158.1912566008469</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.37913943203321</v>
+        <v>92.37913943203318</v>
       </c>
       <c r="K19" t="n">
-        <v>252.5369324325575</v>
+        <v>252.536932432556</v>
       </c>
       <c r="L19" t="n">
         <v>366.0241541425004</v>
       </c>
       <c r="M19" t="n">
-        <v>393.8448187736578</v>
+        <v>393.8448187736577</v>
       </c>
       <c r="N19" t="n">
-        <v>391.0939091278858</v>
+        <v>391.0939091278857</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6700878184016</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P19" t="n">
         <v>281.4137236528362</v>
@@ -36121,7 +36121,7 @@
         <v>358.5879357905633</v>
       </c>
       <c r="K20" t="n">
-        <v>335.2493975808979</v>
+        <v>659.3948101520626</v>
       </c>
       <c r="L20" t="n">
         <v>453.1810294058926</v>
@@ -36130,7 +36130,7 @@
         <v>536.2405446018305</v>
       </c>
       <c r="N20" t="n">
-        <v>986.9248141515729</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O20" t="n">
         <v>505.4808562309059</v>
@@ -36139,7 +36139,7 @@
         <v>396.5667202630248</v>
       </c>
       <c r="Q20" t="n">
-        <v>315.9358569282447</v>
+        <v>429.137368769066</v>
       </c>
       <c r="R20" t="n">
         <v>124.3706672577563</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.85180619568328</v>
+        <v>96.54320282631325</v>
       </c>
       <c r="K21" t="n">
         <v>239.3519526830914</v>
@@ -36212,7 +36212,7 @@
         <v>476.181739906105</v>
       </c>
       <c r="O21" t="n">
-        <v>415.8604214162074</v>
+        <v>413.1690247855772</v>
       </c>
       <c r="P21" t="n">
         <v>312.0762182744025</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.37913943203125</v>
+        <v>92.3791394320331</v>
       </c>
       <c r="K22" t="n">
-        <v>252.5369324325575</v>
+        <v>252.5369324325574</v>
       </c>
       <c r="L22" t="n">
-        <v>366.0241541425005</v>
+        <v>366.0241541425004</v>
       </c>
       <c r="M22" t="n">
-        <v>393.8448187736578</v>
+        <v>393.8448187736577</v>
       </c>
       <c r="N22" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6700878184016</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P22" t="n">
         <v>281.4137236528362</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.1056910788943</v>
+        <v>125.1056910788942</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>358.5879357905633</v>
       </c>
       <c r="K23" t="n">
-        <v>335.2493975808979</v>
+        <v>389.8728939336999</v>
       </c>
       <c r="L23" t="n">
         <v>453.1810294058926</v>
       </c>
       <c r="M23" t="n">
-        <v>536.2405446018305</v>
+        <v>985.754078094663</v>
       </c>
       <c r="N23" t="n">
         <v>549.5778897395887</v>
@@ -36373,10 +36373,10 @@
         <v>505.4808562309059</v>
       </c>
       <c r="P23" t="n">
-        <v>688.3887594487542</v>
+        <v>396.5667202630248</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R23" t="n">
         <v>124.3706672577563</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>96.54320282631325</v>
+        <v>93.85180619568328</v>
       </c>
       <c r="K24" t="n">
         <v>239.3519526830914</v>
@@ -36455,7 +36455,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.37913943203316</v>
+        <v>92.3791394320331</v>
       </c>
       <c r="K25" t="n">
         <v>252.5369324325574</v>
@@ -36525,16 +36525,16 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N25" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P25" t="n">
         <v>281.4137236528362</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.1056910788943</v>
+        <v>125.1056910788942</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>328.6112668048111</v>
+        <v>189.4913206184896</v>
       </c>
       <c r="K26" t="n">
-        <v>335.2493975808978</v>
+        <v>335.2493975808979</v>
       </c>
       <c r="L26" t="n">
-        <v>453.1810294058925</v>
+        <v>870.8422439563431</v>
       </c>
       <c r="M26" t="n">
-        <v>536.2405446018303</v>
+        <v>536.2405446018305</v>
       </c>
       <c r="N26" t="n">
-        <v>549.5778897395885</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O26" t="n">
-        <v>505.4808562309057</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P26" t="n">
-        <v>718.3654284345073</v>
+        <v>717.8555706032649</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4607421545015</v>
+        <v>249.1457514945969</v>
       </c>
       <c r="R26" t="n">
-        <v>124.3706672577563</v>
+        <v>58.6542473847739</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>96.54320282631404</v>
+        <v>93.85180619568328</v>
       </c>
       <c r="K27" t="n">
-        <v>239.3519526830913</v>
+        <v>239.3519526830914</v>
       </c>
       <c r="L27" t="n">
-        <v>368.628683859262</v>
+        <v>368.6286838592621</v>
       </c>
       <c r="M27" t="n">
-        <v>449.7246790652131</v>
+        <v>449.7246790652133</v>
       </c>
       <c r="N27" t="n">
-        <v>476.1817399061049</v>
+        <v>476.181739906105</v>
       </c>
       <c r="O27" t="n">
-        <v>413.1690247855771</v>
+        <v>413.1690247855772</v>
       </c>
       <c r="P27" t="n">
-        <v>312.0762182744024</v>
+        <v>312.0762182744025</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.37913943203313</v>
+        <v>92.3791394320331</v>
       </c>
       <c r="K28" t="n">
         <v>252.5369324325574</v>
@@ -36768,7 +36768,7 @@
         <v>348.6700878184014</v>
       </c>
       <c r="P28" t="n">
-        <v>281.4137236528361</v>
+        <v>281.4137236528362</v>
       </c>
       <c r="Q28" t="n">
         <v>125.1056910788942</v>
@@ -36832,7 +36832,7 @@
         <v>189.4913206184896</v>
       </c>
       <c r="K29" t="n">
-        <v>335.2493975808979</v>
+        <v>659.3948101520626</v>
       </c>
       <c r="L29" t="n">
         <v>453.1810294058926</v>
@@ -36841,16 +36841,16 @@
         <v>536.2405446018305</v>
       </c>
       <c r="N29" t="n">
-        <v>986.9248141515729</v>
+        <v>549.5778897395887</v>
       </c>
       <c r="O29" t="n">
-        <v>807.0839967096122</v>
+        <v>505.4808562309059</v>
       </c>
       <c r="P29" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q29" t="n">
-        <v>249.1457514945969</v>
+        <v>342.1516956426399</v>
       </c>
       <c r="R29" t="n">
         <v>58.6542473847739</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.85180619568328</v>
+        <v>96.54320282631325</v>
       </c>
       <c r="K30" t="n">
-        <v>242.0433493137213</v>
+        <v>239.3519526830914</v>
       </c>
       <c r="L30" t="n">
         <v>368.6286838592621</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.37913943203316</v>
+        <v>92.3791394320331</v>
       </c>
       <c r="K31" t="n">
         <v>252.5369324325574</v>
@@ -36999,16 +36999,16 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N31" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P31" t="n">
         <v>281.4137236528362</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.1056910788943</v>
+        <v>125.1056910788942</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>718.3654284345075</v>
       </c>
       <c r="Q32" t="n">
-        <v>431.4840731687495</v>
+        <v>431.484073168749</v>
       </c>
       <c r="R32" t="n">
         <v>124.3706672577563</v>
@@ -37148,7 +37148,7 @@
         <v>93.85180619568328</v>
       </c>
       <c r="K33" t="n">
-        <v>242.0433493137213</v>
+        <v>239.3519526830914</v>
       </c>
       <c r="L33" t="n">
         <v>368.6286838592621</v>
@@ -37166,7 +37166,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.37913943203314</v>
+        <v>92.37913943203309</v>
       </c>
       <c r="K34" t="n">
         <v>252.5369324325574</v>
       </c>
       <c r="L34" t="n">
-        <v>366.0241541425004</v>
+        <v>366.0241541425003</v>
       </c>
       <c r="M34" t="n">
         <v>393.8448187736577</v>
       </c>
       <c r="N34" t="n">
-        <v>391.0939091278857</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P34" t="n">
-        <v>281.4137236528362</v>
+        <v>281.4137236528361</v>
       </c>
       <c r="Q34" t="n">
         <v>125.1056910788942</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.5879357905633</v>
+        <v>328.6112668048091</v>
       </c>
       <c r="K35" t="n">
         <v>335.2493975808979</v>
@@ -37327,7 +37327,7 @@
         <v>461.4607421545015</v>
       </c>
       <c r="R35" t="n">
-        <v>94.39399827200475</v>
+        <v>124.3706672577563</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R36" t="n">
-        <v>2.691396630630014</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.3791394320331</v>
+        <v>92.37913943203314</v>
       </c>
       <c r="K37" t="n">
         <v>252.5369324325574</v>
       </c>
       <c r="L37" t="n">
-        <v>366.0241541425003</v>
+        <v>366.0241541425004</v>
       </c>
       <c r="M37" t="n">
         <v>393.8448187736577</v>
@@ -37476,10 +37476,10 @@
         <v>391.0939091278856</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6700878184014</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P37" t="n">
-        <v>281.4137236528361</v>
+        <v>281.4137236528362</v>
       </c>
       <c r="Q37" t="n">
         <v>125.1056910788942</v>
@@ -37558,7 +37558,7 @@
         <v>505.4808562309059</v>
       </c>
       <c r="P38" t="n">
-        <v>688.3887594487542</v>
+        <v>688.3887594487537</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4607421545015</v>
@@ -37622,7 +37622,7 @@
         <v>93.85180619568328</v>
       </c>
       <c r="K39" t="n">
-        <v>239.3519526830914</v>
+        <v>242.0433493137213</v>
       </c>
       <c r="L39" t="n">
         <v>368.6286838592621</v>
@@ -37640,7 +37640,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q39" t="n">
-        <v>160.8826532314771</v>
+        <v>158.1912566008469</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.37913943203313</v>
+        <v>92.37913943203311</v>
       </c>
       <c r="K40" t="n">
         <v>252.5369324325574</v>
@@ -37710,10 +37710,10 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N40" t="n">
-        <v>391.0939091278859</v>
+        <v>391.0939091278856</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6700878184015</v>
+        <v>348.6700878184014</v>
       </c>
       <c r="P40" t="n">
         <v>281.4137236528362</v>
@@ -37780,7 +37780,7 @@
         <v>358.5879357905633</v>
       </c>
       <c r="K41" t="n">
-        <v>335.2493975808979</v>
+        <v>627.0714367666274</v>
       </c>
       <c r="L41" t="n">
         <v>453.1810294058926</v>
@@ -37795,7 +37795,7 @@
         <v>505.4808562309059</v>
       </c>
       <c r="P41" t="n">
-        <v>688.3887594487542</v>
+        <v>396.5667202630248</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4607421545015</v>
@@ -37874,10 +37874,10 @@
         <v>413.1690247855772</v>
       </c>
       <c r="P42" t="n">
-        <v>314.7676149050326</v>
+        <v>312.0762182744025</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.1912566008469</v>
+        <v>160.8826532314771</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>358.5879357905633</v>
       </c>
       <c r="K44" t="n">
-        <v>659.3948101520626</v>
+        <v>335.2493975808979</v>
       </c>
       <c r="L44" t="n">
-        <v>633.1726466803622</v>
+        <v>453.1810294058926</v>
       </c>
       <c r="M44" t="n">
         <v>536.2405446018305</v>
@@ -38032,10 +38032,10 @@
         <v>505.4808562309059</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5667202630248</v>
+        <v>718.3654284345075</v>
       </c>
       <c r="Q44" t="n">
-        <v>249.1457514945969</v>
+        <v>431.4840731687485</v>
       </c>
       <c r="R44" t="n">
         <v>124.3706672577563</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.85180619568328</v>
+        <v>96.54320282631325</v>
       </c>
       <c r="K45" t="n">
         <v>239.3519526830914</v>
@@ -38114,7 +38114,7 @@
         <v>312.0762182744025</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.8826532314771</v>
+        <v>158.1912566008469</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.37913943203311</v>
+        <v>92.37913943203313</v>
       </c>
       <c r="K46" t="n">
         <v>252.5369324325574</v>
@@ -38184,10 +38184,10 @@
         <v>393.8448187736577</v>
       </c>
       <c r="N46" t="n">
-        <v>391.0939091278856</v>
+        <v>391.0939091278857</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6700878184023</v>
+        <v>348.6700878184015</v>
       </c>
       <c r="P46" t="n">
         <v>281.4137236528362</v>
